--- a/capiq_data/in_process_data/IQ28703.xlsx
+++ b/capiq_data/in_process_data/IQ28703.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D5D8E6-E28B-48AE-A4CB-5A7D4A04AE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E99B0-4F3B-4BC3-A149-5ADDA74B2481}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"db073864-a9d4-4d25-810f-22062ec262cc"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"999026a7-a48d-41cf-ae63-48f3f4ab8e49"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>501.15699999999998</v>
+        <v>149.465</v>
       </c>
       <c r="D2">
-        <v>1700.3130000000001</v>
+        <v>564.07399999999996</v>
       </c>
       <c r="E2">
-        <v>1212.18</v>
+        <v>525.5</v>
       </c>
       <c r="F2">
-        <v>760.76599999999996</v>
+        <v>258.29500000000002</v>
       </c>
       <c r="G2">
-        <v>7622.3940000000002</v>
+        <v>1870.7840000000001</v>
       </c>
       <c r="H2">
-        <v>12391.955</v>
+        <v>4092.377</v>
       </c>
       <c r="I2">
-        <v>291.012</v>
+        <v>83.034000000000006</v>
       </c>
       <c r="J2">
-        <v>949.971</v>
+        <v>285.76</v>
       </c>
       <c r="K2">
-        <v>27.248000000000001</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-2.7669999999999999</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-89.721000000000004</v>
+        <v>-68.606999999999999</v>
       </c>
       <c r="N2">
-        <v>1108.329</v>
+        <v>404.39600000000002</v>
       </c>
       <c r="O2">
-        <v>4238.4319999999998</v>
+        <v>1014.085</v>
       </c>
       <c r="P2">
-        <v>977.21900000000005</v>
+        <v>354.55399999999997</v>
       </c>
       <c r="Q2">
-        <v>197.31399999999999</v>
+        <v>337.74</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>8153.5230000000001</v>
+        <v>3078.2919999999999</v>
       </c>
       <c r="U2">
-        <v>4247.7939999999999</v>
+        <v>1083.7449999999999</v>
       </c>
       <c r="V2">
-        <v>245.77600000000001</v>
+        <v>118.078</v>
       </c>
       <c r="W2">
-        <v>-49.762999999999998</v>
+        <v>-14.622999999999999</v>
       </c>
       <c r="X2">
-        <v>-292.71199999999999</v>
+        <v>-28.925000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>236.333</v>
+        <v>392.565</v>
       </c>
       <c r="AA2">
-        <v>501.15699999999998</v>
+        <v>149.465</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>503.1</v>
+        <v>131.684</v>
       </c>
       <c r="D3">
-        <v>1749.5630000000001</v>
+        <v>577.41300000000001</v>
       </c>
       <c r="E3">
-        <v>1208.019</v>
+        <v>415.90300000000002</v>
       </c>
       <c r="F3">
-        <v>756.81799999999998</v>
+        <v>257.62599999999998</v>
       </c>
       <c r="G3">
-        <v>8057.3220000000001</v>
+        <v>1864.299</v>
       </c>
       <c r="H3">
-        <v>12827.382</v>
+        <v>3955.7820000000002</v>
       </c>
       <c r="I3">
-        <v>265.60500000000002</v>
+        <v>86.412000000000006</v>
       </c>
       <c r="J3">
-        <v>948.03899999999999</v>
+        <v>254.57900000000001</v>
       </c>
       <c r="K3">
-        <v>29.995000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1173.0989999999999</v>
+        <v>313.59399999999999</v>
       </c>
       <c r="O3">
-        <v>4377.4350000000004</v>
+        <v>774.08</v>
       </c>
       <c r="P3">
-        <v>980.03399999999999</v>
+        <v>271.35599999999999</v>
       </c>
       <c r="Q3">
-        <v>347.41300000000001</v>
+        <v>-95.09</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>8449.9470000000001</v>
+        <v>3181.7020000000002</v>
       </c>
       <c r="U3">
-        <v>4549.366</v>
+        <v>988.65499999999997</v>
       </c>
       <c r="V3">
-        <v>242.56800000000001</v>
+        <v>112.078</v>
       </c>
       <c r="W3">
-        <v>-55.92</v>
+        <v>-15.849</v>
       </c>
       <c r="X3">
-        <v>-221.10900000000001</v>
+        <v>-125.83799999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>349.815</v>
+        <v>-145.13300000000001</v>
       </c>
       <c r="AA3">
-        <v>503.1</v>
+        <v>131.684</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>503.34699999999998</v>
+        <v>119.703</v>
       </c>
       <c r="D4">
-        <v>1853.0329999999999</v>
+        <v>609.47299999999996</v>
       </c>
       <c r="E4">
-        <v>1269.5889999999999</v>
+        <v>706.83500000000004</v>
       </c>
       <c r="F4">
-        <v>820.13</v>
+        <v>262.49200000000002</v>
       </c>
       <c r="G4">
-        <v>8362.634</v>
+        <v>2299.9380000000001</v>
       </c>
       <c r="H4">
-        <v>13150.999</v>
+        <v>5934.8630000000003</v>
       </c>
       <c r="I4">
-        <v>247.41</v>
+        <v>102.726</v>
       </c>
       <c r="J4">
-        <v>948.10599999999999</v>
+        <v>551.327</v>
       </c>
       <c r="K4">
-        <v>29.998999999999999</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1280.655</v>
+        <v>395.93900000000002</v>
       </c>
       <c r="O4">
-        <v>4352.402</v>
+        <v>1999.7270000000001</v>
       </c>
       <c r="P4">
-        <v>978.10500000000002</v>
+        <v>560.03</v>
       </c>
       <c r="Q4">
-        <v>51.545999999999999</v>
+        <v>-113.542</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>8798.5969999999998</v>
+        <v>3935.136</v>
       </c>
       <c r="U4">
-        <v>4642.0969999999998</v>
+        <v>875.11300000000006</v>
       </c>
       <c r="V4">
-        <v>520.255</v>
+        <v>200.86199999999999</v>
       </c>
       <c r="W4">
-        <v>-55.51</v>
+        <v>-15.894</v>
       </c>
       <c r="X4">
-        <v>-355.93799999999999</v>
+        <v>216.489</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-123.51600000000001</v>
+        <v>-378.82600000000002</v>
       </c>
       <c r="AA4">
-        <v>503.34699999999998</v>
+        <v>119.703</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>415.99599999999998</v>
+        <v>83.869</v>
       </c>
       <c r="D5">
-        <v>1837.0909999999999</v>
+        <v>603.88300000000004</v>
       </c>
       <c r="E5">
-        <v>1324.5</v>
+        <v>851.47900000000004</v>
       </c>
       <c r="F5">
-        <v>858.28599999999994</v>
+        <v>255.304</v>
       </c>
       <c r="G5">
-        <v>8820</v>
+        <v>2480.2739999999999</v>
       </c>
       <c r="H5">
-        <v>13775.8</v>
+        <v>6265.65</v>
       </c>
       <c r="I5">
-        <v>265.89999999999998</v>
+        <v>127.91800000000001</v>
       </c>
       <c r="J5">
-        <v>968.2</v>
+        <v>567.01300000000003</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1409.9</v>
+        <v>457.43299999999999</v>
       </c>
       <c r="O5">
-        <v>4653.3</v>
+        <v>2287.7539999999999</v>
       </c>
       <c r="P5">
-        <v>998.2</v>
+        <v>575.37400000000002</v>
       </c>
       <c r="Q5">
-        <v>478.62700000000001</v>
+        <v>-278.90600000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>8453</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>9122.5</v>
+        <v>3977.8960000000002</v>
       </c>
       <c r="U5">
-        <v>5028.8999999999996</v>
+        <v>596.20699999999999</v>
       </c>
       <c r="V5">
-        <v>613.20100000000002</v>
+        <v>122.169</v>
       </c>
       <c r="W5">
-        <v>-55.106999999999999</v>
+        <v>-17.105</v>
       </c>
       <c r="X5">
-        <v>-98.441000000000003</v>
+        <v>-12.327999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-34.031999999999996</v>
+        <v>-269.73500000000001</v>
       </c>
       <c r="AA5">
-        <v>415.99599999999998</v>
+        <v>83.869</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>480.8</v>
+        <v>118.51900000000001</v>
       </c>
       <c r="D6">
-        <v>1701.9</v>
+        <v>618.20699999999999</v>
       </c>
       <c r="E6">
-        <v>1171.7650000000001</v>
+        <v>591.70899999999995</v>
       </c>
       <c r="F6">
-        <v>770.9</v>
+        <v>269.05399999999997</v>
       </c>
       <c r="G6">
-        <v>8189.41</v>
+        <v>2637.5630000000001</v>
       </c>
       <c r="H6">
-        <v>13405.486999999999</v>
+        <v>6089.6030000000001</v>
       </c>
       <c r="I6">
-        <v>206.684</v>
+        <v>130.46299999999999</v>
       </c>
       <c r="J6">
-        <v>968.24199999999996</v>
+        <v>583.79300000000001</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-115.9</v>
+        <v>-1.653</v>
       </c>
       <c r="N6">
-        <v>1040.924</v>
+        <v>385.68299999999999</v>
       </c>
       <c r="O6">
-        <v>4445.5860000000002</v>
+        <v>1997.4860000000001</v>
       </c>
       <c r="P6">
-        <v>993.24199999999996</v>
+        <v>592.06799999999998</v>
       </c>
       <c r="Q6">
-        <v>-286.7</v>
+        <v>376.048</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8959.9009999999998</v>
+        <v>4092.1170000000002</v>
       </c>
       <c r="U6">
-        <v>4839.5420000000004</v>
+        <v>788.32799999999997</v>
       </c>
       <c r="V6">
-        <v>167.7</v>
+        <v>226.04499999999999</v>
       </c>
       <c r="W6">
-        <v>-65.099999999999994</v>
+        <v>-16.890999999999998</v>
       </c>
       <c r="X6">
-        <v>-681.4</v>
+        <v>-31.538</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>225.4</v>
+        <v>-13.8</v>
       </c>
       <c r="AA6">
-        <v>480.8</v>
+        <v>118.51900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>503.2</v>
+        <v>119.996</v>
       </c>
       <c r="D7">
-        <v>1799.3</v>
+        <v>625.96799999999996</v>
       </c>
       <c r="E7">
-        <v>1113.335</v>
+        <v>702.26800000000003</v>
       </c>
       <c r="F7">
-        <v>760.8</v>
+        <v>271.83</v>
       </c>
       <c r="G7">
-        <v>8561.6260000000002</v>
+        <v>2763.703</v>
       </c>
       <c r="H7">
-        <v>13662.808000000001</v>
+        <v>6494.58</v>
       </c>
       <c r="I7">
-        <v>341.47500000000002</v>
+        <v>135.37799999999999</v>
       </c>
       <c r="J7">
-        <v>968.31</v>
+        <v>605.26700000000005</v>
       </c>
       <c r="K7">
-        <v>24.998000000000001</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1116.704</v>
+        <v>410.93799999999999</v>
       </c>
       <c r="O7">
-        <v>4286.5590000000002</v>
+        <v>2280.127</v>
       </c>
       <c r="P7">
-        <v>993.30799999999999</v>
+        <v>613.54600000000005</v>
       </c>
       <c r="Q7">
-        <v>167.2</v>
+        <v>418.19</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>9376.2489999999998</v>
+        <v>4214.4530000000004</v>
       </c>
       <c r="U7">
-        <v>5024.0770000000002</v>
+        <v>1089.826</v>
       </c>
       <c r="V7">
-        <v>310.60000000000002</v>
+        <v>191.583</v>
       </c>
       <c r="W7">
-        <v>-0.5</v>
+        <v>-18.238</v>
       </c>
       <c r="X7">
-        <v>-365.3</v>
+        <v>113.259</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>202.1</v>
+        <v>266.31400000000002</v>
       </c>
       <c r="AA7">
-        <v>503.2</v>
+        <v>119.996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>455.3</v>
+        <v>125.69</v>
       </c>
       <c r="D8">
-        <v>1783.6</v>
+        <v>666.05</v>
       </c>
       <c r="E8">
-        <v>1059.9870000000001</v>
+        <v>675.72900000000004</v>
       </c>
       <c r="F8">
-        <v>777</v>
+        <v>289.21699999999998</v>
       </c>
       <c r="G8">
-        <v>8411.1170000000002</v>
+        <v>2978.4169999999999</v>
       </c>
       <c r="H8">
-        <v>13634.313</v>
+        <v>6448.7640000000001</v>
       </c>
       <c r="I8">
-        <v>278.10899999999998</v>
+        <v>127.96299999999999</v>
       </c>
       <c r="J8">
-        <v>668.53499999999997</v>
+        <v>575.43399999999997</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1385.9760000000001</v>
+        <v>480.21199999999999</v>
       </c>
       <c r="O8">
-        <v>4297.6940000000004</v>
+        <v>2132.4830000000002</v>
       </c>
       <c r="P8">
-        <v>968.37699999999995</v>
+        <v>584.11900000000003</v>
       </c>
       <c r="Q8">
-        <v>306</v>
+        <v>-341.57100000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>9336.6190000000006</v>
+        <v>4316.2809999999999</v>
       </c>
       <c r="U8">
-        <v>5342.6890000000003</v>
+        <v>923.53800000000001</v>
       </c>
       <c r="V8">
-        <v>407.5</v>
+        <v>116.41</v>
       </c>
       <c r="W8">
-        <v>-58.1</v>
+        <v>-18.120999999999999</v>
       </c>
       <c r="X8">
-        <v>-244</v>
+        <v>-76.963999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>80.3</v>
+        <v>-499.33800000000002</v>
       </c>
       <c r="AA8">
-        <v>455.3</v>
+        <v>125.69</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>492.1</v>
+        <v>68.518000000000001</v>
       </c>
       <c r="D9">
-        <v>1816.2</v>
+        <v>608.30700000000002</v>
       </c>
       <c r="E9">
-        <v>1104.5999999999999</v>
+        <v>736.66300000000001</v>
       </c>
       <c r="F9">
-        <v>797.1</v>
+        <v>259.48500000000001</v>
       </c>
       <c r="G9">
-        <v>10317.299999999999</v>
+        <v>2936.0610000000001</v>
       </c>
       <c r="H9">
-        <v>14751.5</v>
+        <v>6422.7380000000003</v>
       </c>
       <c r="I9">
-        <v>241.6</v>
+        <v>117.246</v>
       </c>
       <c r="J9">
-        <v>1566.1</v>
+        <v>595.14800000000002</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1188.0999999999999</v>
+        <v>463.51900000000001</v>
       </c>
       <c r="O9">
-        <v>4964.3</v>
+        <v>2155.7919999999999</v>
       </c>
       <c r="P9">
-        <v>1566.1</v>
+        <v>611.47799999999995</v>
       </c>
       <c r="Q9">
-        <v>666.3</v>
+        <v>-68.27</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>8558</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>9787.2000000000007</v>
+        <v>4266.9459999999999</v>
       </c>
       <c r="U9">
-        <v>5784.3</v>
+        <v>980.60400000000004</v>
       </c>
       <c r="V9">
-        <v>180.4</v>
+        <v>202.762</v>
       </c>
       <c r="W9">
-        <v>-57.5</v>
+        <v>-18.527999999999999</v>
       </c>
       <c r="X9">
-        <v>205.8</v>
+        <v>-140.46199999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>46.9</v>
+        <v>-34.86</v>
       </c>
       <c r="AA9">
-        <v>492.1</v>
+        <v>68.518000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>516.1</v>
+        <v>109.76</v>
       </c>
       <c r="D10">
-        <v>1901.8</v>
+        <v>605.45100000000002</v>
       </c>
       <c r="E10">
-        <v>1187.4000000000001</v>
+        <v>707.71500000000003</v>
       </c>
       <c r="F10">
-        <v>835.8</v>
+        <v>261.44099999999997</v>
       </c>
       <c r="G10">
-        <v>9795.2000000000007</v>
+        <v>3042.35</v>
       </c>
       <c r="H10">
-        <v>14354.2</v>
+        <v>6519.3270000000002</v>
       </c>
       <c r="I10">
-        <v>194.1</v>
+        <v>115.40900000000001</v>
       </c>
       <c r="J10">
-        <v>1244.8</v>
+        <v>614.447</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-666.5</v>
+        <v>-4.633</v>
       </c>
       <c r="N10">
-        <v>925.6</v>
+        <v>389.81599999999997</v>
       </c>
       <c r="O10">
-        <v>4753.2</v>
+        <v>2161.5259999999998</v>
       </c>
       <c r="P10">
-        <v>1263.3</v>
+        <v>620.46199999999999</v>
       </c>
       <c r="Q10">
-        <v>-808.7</v>
+        <v>70.509</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>9601</v>
+        <v>4357.8010000000004</v>
       </c>
       <c r="U10">
-        <v>5086.8</v>
+        <v>1051.1130000000001</v>
       </c>
       <c r="V10">
-        <v>286.39999999999998</v>
+        <v>81.62</v>
       </c>
       <c r="W10">
-        <v>-66.81</v>
+        <v>-18.062999999999999</v>
       </c>
       <c r="X10">
-        <v>-1140.4000000000001</v>
+        <v>26.981999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>63.4</v>
+        <v>-50.226999999999997</v>
       </c>
       <c r="AA10">
-        <v>516.1</v>
+        <v>109.76</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>572.79999999999995</v>
+        <v>109.60299999999999</v>
       </c>
       <c r="D11">
-        <v>2013.6</v>
+        <v>613.13499999999999</v>
       </c>
       <c r="E11">
-        <v>1232.9000000000001</v>
+        <v>803.27300000000002</v>
       </c>
       <c r="F11">
-        <v>877.7</v>
+        <v>262.21800000000002</v>
       </c>
       <c r="G11">
-        <v>10244.4</v>
+        <v>3010.0439999999999</v>
       </c>
       <c r="H11">
-        <v>14810.2</v>
+        <v>6606.3050000000003</v>
       </c>
       <c r="I11">
-        <v>246.6</v>
+        <v>125.51</v>
       </c>
       <c r="J11">
-        <v>1244.9000000000001</v>
+        <v>636.08600000000001</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1041.0999999999999</v>
+        <v>405.51100000000002</v>
       </c>
       <c r="O11">
-        <v>4651.8</v>
+        <v>2237.8180000000002</v>
       </c>
       <c r="P11">
-        <v>1263.4000000000001</v>
+        <v>640.30200000000002</v>
       </c>
       <c r="Q11">
-        <v>313.10000000000002</v>
+        <v>-226.227</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>8700</v>
+        <v>6600</v>
       </c>
       <c r="T11">
-        <v>10158.4</v>
+        <v>4368.4870000000001</v>
       </c>
       <c r="U11">
-        <v>5411.3</v>
+        <v>824.88599999999997</v>
       </c>
       <c r="V11">
-        <v>485.4</v>
+        <v>168.84100000000001</v>
       </c>
       <c r="W11">
-        <v>-1.4</v>
+        <v>-19.341000000000001</v>
       </c>
       <c r="X11">
-        <v>-209.5</v>
+        <v>-171.10400000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>37.799999999999997</v>
+        <v>-106.321</v>
       </c>
       <c r="AA11">
-        <v>572.79999999999995</v>
+        <v>109.60299999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>552.29999999999995</v>
+        <v>131.38800000000001</v>
       </c>
       <c r="D12">
-        <v>2084.8000000000002</v>
+        <v>683.90700000000004</v>
       </c>
       <c r="E12">
-        <v>1194.9000000000001</v>
+        <v>681.45600000000002</v>
       </c>
       <c r="F12">
-        <v>926.5</v>
+        <v>294.447</v>
       </c>
       <c r="G12">
-        <v>10832</v>
+        <v>3593.1640000000002</v>
       </c>
       <c r="H12">
-        <v>15317.2</v>
+        <v>6977.11</v>
       </c>
       <c r="I12">
-        <v>272.7</v>
+        <v>152.744</v>
       </c>
       <c r="J12">
-        <v>1245.0999999999999</v>
+        <v>1081.6959999999999</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1153.9000000000001</v>
+        <v>503.91399999999999</v>
       </c>
       <c r="O12">
-        <v>4794.1000000000004</v>
+        <v>2615.819</v>
       </c>
       <c r="P12">
-        <v>1252.0999999999999</v>
+        <v>1137.83</v>
       </c>
       <c r="Q12">
-        <v>676.3</v>
+        <v>588.529</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="T12">
-        <v>10523.1</v>
+        <v>4361.2910000000002</v>
       </c>
       <c r="U12">
-        <v>6069</v>
+        <v>1413.415</v>
       </c>
       <c r="V12">
-        <v>755.8</v>
+        <v>144.107</v>
       </c>
       <c r="W12">
-        <v>-61.8</v>
+        <v>-19.975000000000001</v>
       </c>
       <c r="X12">
-        <v>-157.9</v>
+        <v>217.96899999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>102.6</v>
+        <v>66.156000000000006</v>
       </c>
       <c r="AA12">
-        <v>552.29999999999995</v>
+        <v>131.38800000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>509</v>
+        <v>152.07900000000001</v>
       </c>
       <c r="D13">
-        <v>1984.8</v>
+        <v>729.63099999999997</v>
       </c>
       <c r="E13">
-        <v>1268.5999999999999</v>
+        <v>805.95799999999997</v>
       </c>
       <c r="F13">
-        <v>918.4</v>
+        <v>322.11599999999999</v>
       </c>
       <c r="G13">
-        <v>10932.7</v>
+        <v>3476.1709999999998</v>
       </c>
       <c r="H13">
-        <v>15390.3</v>
+        <v>6970.7489999999998</v>
       </c>
       <c r="I13">
-        <v>273.7</v>
+        <v>112.63</v>
       </c>
       <c r="J13">
-        <v>1197.7</v>
+        <v>1108.8810000000001</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1275.5</v>
+        <v>503.02600000000001</v>
       </c>
       <c r="O13">
-        <v>4583</v>
+        <v>2635.297</v>
       </c>
       <c r="P13">
-        <v>1197.7</v>
+        <v>1123.6679999999999</v>
       </c>
       <c r="Q13">
-        <v>91</v>
+        <v>-359.72</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>9002</v>
+        <v>6500</v>
       </c>
       <c r="T13">
-        <v>10807.3</v>
+        <v>4335.4520000000002</v>
       </c>
       <c r="U13">
-        <v>6186</v>
+        <v>1053.6949999999999</v>
       </c>
       <c r="V13">
-        <v>508.1</v>
+        <v>141.846</v>
       </c>
       <c r="W13">
-        <v>-61.6</v>
+        <v>-18.062000000000001</v>
       </c>
       <c r="X13">
-        <v>-510.3</v>
+        <v>-277.37799999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>72.8</v>
+        <v>-101.611</v>
       </c>
       <c r="AA13">
-        <v>509</v>
+        <v>152.07900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>603.79999999999995</v>
+        <v>172.29599999999999</v>
       </c>
       <c r="D14">
-        <v>2109.5</v>
+        <v>809.66600000000005</v>
       </c>
       <c r="E14">
-        <v>1059.2</v>
+        <v>709.04399999999998</v>
       </c>
       <c r="F14">
-        <v>983.8</v>
+        <v>349.286</v>
       </c>
       <c r="G14">
-        <v>11461.5</v>
+        <v>3766.5590000000002</v>
       </c>
       <c r="H14">
-        <v>15909.3</v>
+        <v>7417.402</v>
       </c>
       <c r="I14">
-        <v>260.8</v>
+        <v>115.863</v>
       </c>
       <c r="J14">
-        <v>1197.8</v>
+        <v>1135.789</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-236.8</v>
+        <v>-6.5069999999999997</v>
       </c>
       <c r="N14">
-        <v>1233.5</v>
+        <v>667.64599999999996</v>
       </c>
       <c r="O14">
-        <v>4671.1000000000004</v>
+        <v>2755.8530000000001</v>
       </c>
       <c r="P14">
-        <v>1197.8</v>
+        <v>1318.489</v>
       </c>
       <c r="Q14">
-        <v>376.6</v>
+        <v>299.08100000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9100</v>
+        <v>6500</v>
       </c>
       <c r="T14">
-        <v>11238.2</v>
+        <v>4661.549</v>
       </c>
       <c r="U14">
-        <v>6552.2</v>
+        <v>1352.7760000000001</v>
       </c>
       <c r="V14">
-        <v>324.7</v>
+        <v>94.733999999999995</v>
       </c>
       <c r="W14">
-        <v>-64.099999999999994</v>
+        <v>-18.484999999999999</v>
       </c>
       <c r="X14">
-        <v>-72.5</v>
+        <v>70.945999999999998</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>133.9</v>
+        <v>26.954999999999998</v>
       </c>
       <c r="AA14">
-        <v>603.79999999999995</v>
+        <v>172.29599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>561</v>
+        <v>172.791</v>
       </c>
       <c r="D15">
-        <v>2095.9</v>
+        <v>878.995</v>
       </c>
       <c r="E15">
-        <v>991.4</v>
+        <v>792.41</v>
       </c>
       <c r="F15">
-        <v>957.3</v>
+        <v>388.80200000000002</v>
       </c>
       <c r="G15">
-        <v>11612.8</v>
+        <v>4125.268</v>
       </c>
       <c r="H15">
-        <v>16137.4</v>
+        <v>7850.48</v>
       </c>
       <c r="I15">
-        <v>261.5</v>
+        <v>183.398</v>
       </c>
       <c r="J15">
-        <v>1197.9000000000001</v>
+        <v>1157.828</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1112.0999999999999</v>
+        <v>741.38599999999997</v>
       </c>
       <c r="O15">
-        <v>4491</v>
+        <v>2987.587</v>
       </c>
       <c r="P15">
-        <v>1197.9000000000001</v>
+        <v>1334.7280000000001</v>
       </c>
       <c r="Q15">
-        <v>211.2</v>
+        <v>1196.8040000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="T15">
-        <v>11646.4</v>
+        <v>4862.893</v>
       </c>
       <c r="U15">
-        <v>6814.7</v>
+        <v>2549.58</v>
       </c>
       <c r="V15">
-        <v>314.7</v>
+        <v>148.434</v>
       </c>
       <c r="W15">
-        <v>-75.8</v>
+        <v>-21.123000000000001</v>
       </c>
       <c r="X15">
-        <v>9.1</v>
+        <v>81.516000000000005</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.3</v>
+        <v>995.65300000000002</v>
       </c>
       <c r="AA15">
-        <v>561</v>
+        <v>172.791</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>578.9</v>
+        <v>173.89599999999999</v>
       </c>
       <c r="D16">
-        <v>2130.5</v>
+        <v>867.81500000000005</v>
       </c>
       <c r="E16">
-        <v>1002.8</v>
+        <v>744.91800000000001</v>
       </c>
       <c r="F16">
-        <v>960.5</v>
+        <v>397.34500000000003</v>
       </c>
       <c r="G16">
-        <v>12164.5</v>
+        <v>4305.28</v>
       </c>
       <c r="H16">
-        <v>16691.900000000001</v>
+        <v>8074.5860000000002</v>
       </c>
       <c r="I16">
-        <v>302.60000000000002</v>
+        <v>243.565</v>
       </c>
       <c r="J16">
-        <v>948.1</v>
+        <v>1179.26</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1512</v>
+        <v>869.26700000000005</v>
       </c>
       <c r="O16">
-        <v>4587.3</v>
+        <v>3093.5369999999998</v>
       </c>
       <c r="P16">
-        <v>1198.0999999999999</v>
+        <v>1357.1949999999999</v>
       </c>
       <c r="Q16">
-        <v>786.7</v>
+        <v>-69.164000000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>9300</v>
+        <v>6600</v>
       </c>
       <c r="T16">
-        <v>12104.6</v>
+        <v>4981.049</v>
       </c>
       <c r="U16">
-        <v>7604.2</v>
+        <v>2480.4160000000002</v>
       </c>
       <c r="V16">
-        <v>771.5</v>
+        <v>-18.564</v>
       </c>
       <c r="W16">
-        <v>-75.400000000000006</v>
+        <v>-21.239000000000001</v>
       </c>
       <c r="X16">
-        <v>-268.89999999999998</v>
+        <v>-158.94300000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>112.8</v>
+        <v>102.212</v>
       </c>
       <c r="AA16">
-        <v>578.9</v>
+        <v>173.89599999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>640.6</v>
+        <v>187.68100000000001</v>
       </c>
       <c r="D17">
-        <v>2155.5</v>
+        <v>881.73199999999997</v>
       </c>
       <c r="E17">
-        <v>950</v>
+        <v>740.923</v>
       </c>
       <c r="F17">
-        <v>1033.7</v>
+        <v>399.33300000000003</v>
       </c>
       <c r="G17">
-        <v>11985.6</v>
+        <v>4564.0060000000003</v>
       </c>
       <c r="H17">
-        <v>16357.1</v>
+        <v>8227.768</v>
       </c>
       <c r="I17">
-        <v>237.5</v>
+        <v>249.78899999999999</v>
       </c>
       <c r="J17">
-        <v>948.2</v>
+        <v>1196.4090000000001</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>175.63300000000001</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,164 +2137,164 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1469.8</v>
+        <v>926.74800000000005</v>
       </c>
       <c r="O17">
-        <v>3909.9</v>
+        <v>3044.895</v>
       </c>
       <c r="P17">
-        <v>1198.2</v>
+        <v>1372.0419999999999</v>
       </c>
       <c r="Q17">
-        <v>-101.6</v>
+        <v>436.77199999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>9266</v>
+        <v>6696</v>
       </c>
       <c r="T17">
-        <v>12447.2</v>
+        <v>5182.8729999999996</v>
       </c>
       <c r="U17">
-        <v>7476.8</v>
+        <v>2917.1880000000001</v>
       </c>
       <c r="V17">
-        <v>727.1</v>
+        <v>705.06100000000004</v>
       </c>
       <c r="W17">
-        <v>-75.099999999999994</v>
+        <v>-21.158999999999999</v>
       </c>
       <c r="X17">
-        <v>-863</v>
+        <v>98.900999999999996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>120</v>
+        <v>-69.239000000000004</v>
       </c>
       <c r="AA17">
-        <v>640.6</v>
+        <v>187.68100000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>566.4</v>
+        <v>239.989</v>
       </c>
       <c r="D18">
-        <v>2064.3000000000002</v>
+        <v>986.02200000000005</v>
       </c>
       <c r="E18">
-        <v>926.7</v>
+        <v>747.25300000000004</v>
       </c>
       <c r="F18">
-        <v>957.3</v>
+        <v>431.71499999999997</v>
       </c>
       <c r="G18">
-        <v>11833.2</v>
+        <v>4793.2950000000001</v>
       </c>
       <c r="H18">
-        <v>16296.8</v>
+        <v>8451.2479999999996</v>
       </c>
       <c r="I18">
-        <v>194.2</v>
+        <v>195.81800000000001</v>
       </c>
       <c r="J18">
-        <v>948.3</v>
+        <v>1215.7739999999999</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>170.25</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-278.60000000000002</v>
+        <v>-9.18</v>
       </c>
       <c r="N18">
-        <v>1735.8</v>
+        <v>825.51700000000005</v>
       </c>
       <c r="O18">
-        <v>4068.3</v>
+        <v>3019.346</v>
       </c>
       <c r="P18">
-        <v>1198.3</v>
+        <v>1386.0239999999999</v>
       </c>
       <c r="Q18">
-        <v>289.2</v>
+        <v>188.02199999999999</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>9400</v>
+        <v>6800</v>
       </c>
       <c r="T18">
-        <v>12228.5</v>
+        <v>5431.902</v>
       </c>
       <c r="U18">
-        <v>7758</v>
+        <v>3105.21</v>
       </c>
       <c r="V18">
-        <v>572.4</v>
+        <v>222.42500000000001</v>
       </c>
       <c r="W18">
-        <v>-75.8</v>
+        <v>-21.2</v>
       </c>
       <c r="X18">
-        <v>-327.9</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>106.7</v>
+        <v>-69.444000000000003</v>
       </c>
       <c r="AA18">
-        <v>566.4</v>
+        <v>239.989</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>606.5</v>
+        <v>221.274</v>
       </c>
       <c r="D19">
-        <v>2009.8</v>
+        <v>1051.181</v>
       </c>
       <c r="E19">
-        <v>919.1</v>
+        <v>788.274</v>
       </c>
       <c r="F19">
-        <v>921.8</v>
+        <v>455.279</v>
       </c>
       <c r="G19">
-        <v>12074.6</v>
+        <v>5050.32</v>
       </c>
       <c r="H19">
-        <v>16491.099999999999</v>
+        <v>8699.4549999999999</v>
       </c>
       <c r="I19">
-        <v>220</v>
+        <v>192.459</v>
       </c>
       <c r="J19">
-        <v>1347.7</v>
+        <v>1222.5119999999999</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>220.11</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1338.8</v>
+        <v>1346.732</v>
       </c>
       <c r="O19">
-        <v>4007.2</v>
+        <v>3548.51</v>
       </c>
       <c r="P19">
-        <v>1597.7</v>
+        <v>1442.6220000000001</v>
       </c>
       <c r="Q19">
-        <v>237.1</v>
+        <v>91.882999999999996</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>9400</v>
+        <v>6900</v>
       </c>
       <c r="T19">
-        <v>12483.9</v>
+        <v>5150.9449999999997</v>
       </c>
       <c r="U19">
-        <v>8030.2</v>
+        <v>3197.0929999999998</v>
       </c>
       <c r="V19">
-        <v>549</v>
+        <v>145.41900000000001</v>
       </c>
       <c r="W19">
-        <v>-104.575</v>
+        <v>-25.088999999999999</v>
       </c>
       <c r="X19">
-        <v>-217.1</v>
+        <v>28.736999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>31.9</v>
+        <v>-53.951000000000001</v>
       </c>
       <c r="AA19">
-        <v>606.5</v>
+        <v>221.274</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>504.2</v>
+        <v>261.87299999999999</v>
       </c>
       <c r="D20">
-        <v>2000.8</v>
+        <v>1109.7339999999999</v>
       </c>
       <c r="E20">
-        <v>899</v>
+        <v>764.803</v>
       </c>
       <c r="F20">
-        <v>943.3</v>
+        <v>487.745</v>
       </c>
       <c r="G20">
-        <v>12331.5</v>
+        <v>4893.6930000000002</v>
       </c>
       <c r="H20">
-        <v>16670.3</v>
+        <v>8528.5630000000001</v>
       </c>
       <c r="I20">
-        <v>225.7</v>
+        <v>246.03200000000001</v>
       </c>
       <c r="J20">
-        <v>1347.9</v>
+        <v>1215.49</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>326.29199999999997</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1182</v>
+        <v>1043.5630000000001</v>
       </c>
       <c r="O20">
-        <v>3884.7</v>
+        <v>3136.8409999999999</v>
       </c>
       <c r="P20">
-        <v>1347.9</v>
+        <v>1541.7819999999999</v>
       </c>
       <c r="Q20">
-        <v>304.10000000000002</v>
+        <v>-244.64699999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>9600</v>
+        <v>7000</v>
       </c>
       <c r="T20">
-        <v>12785.6</v>
+        <v>5391.7219999999998</v>
       </c>
       <c r="U20">
-        <v>8262.6</v>
+        <v>2952.4459999999999</v>
       </c>
       <c r="V20">
-        <v>693.5</v>
+        <v>430.60599999999999</v>
       </c>
       <c r="W20">
-        <v>-91.52</v>
+        <v>-24.98</v>
       </c>
       <c r="X20">
-        <v>-552.20000000000005</v>
+        <v>-633.77700000000004</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>119.7</v>
+        <v>-62.796999999999997</v>
       </c>
       <c r="AA20">
-        <v>504.2</v>
+        <v>261.87299999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>358.2</v>
+        <v>334.495</v>
       </c>
       <c r="D21">
-        <v>1873.8</v>
+        <v>1163.1610000000001</v>
       </c>
       <c r="E21">
-        <v>838</v>
+        <v>813.47799999999995</v>
       </c>
       <c r="F21">
-        <v>910.7</v>
+        <v>536.45899999999995</v>
       </c>
       <c r="G21">
-        <v>12107.2</v>
+        <v>5263.8649999999998</v>
       </c>
       <c r="H21">
-        <v>16335.7</v>
+        <v>8893.9269999999997</v>
       </c>
       <c r="I21">
-        <v>232.1</v>
+        <v>205.85300000000001</v>
       </c>
       <c r="J21">
-        <v>1348</v>
+        <v>1208.3900000000001</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>408.61099999999999</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1117.8</v>
+        <v>1091.1189999999999</v>
       </c>
       <c r="O21">
-        <v>3780.3</v>
+        <v>3133.4360000000001</v>
       </c>
       <c r="P21">
-        <v>1348</v>
+        <v>1617.001</v>
       </c>
       <c r="Q21">
-        <v>-58.3</v>
+        <v>199.71299999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>9489</v>
+        <v>7156</v>
       </c>
       <c r="T21">
-        <v>12555.4</v>
+        <v>5760.491</v>
       </c>
       <c r="U21">
-        <v>8184.9</v>
+        <v>3152.1590000000001</v>
       </c>
       <c r="V21">
-        <v>437.1</v>
+        <v>51.537999999999997</v>
       </c>
       <c r="W21">
-        <v>-91.595910000000003</v>
+        <v>-25.29</v>
       </c>
       <c r="X21">
-        <v>-515</v>
+        <v>228.911</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>55</v>
+        <v>-67.596000000000004</v>
       </c>
       <c r="AA21">
-        <v>358.2</v>
+        <v>334.495</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>447.8</v>
+        <v>317.96899999999999</v>
       </c>
       <c r="D22">
-        <v>1758</v>
+        <v>1181.452</v>
       </c>
       <c r="E22">
-        <v>863.7</v>
+        <v>801.21299999999997</v>
       </c>
       <c r="F22">
-        <v>836.3</v>
+        <v>550.89300000000003</v>
       </c>
       <c r="G22">
-        <v>11987.3</v>
+        <v>5310.8969999999999</v>
       </c>
       <c r="H22">
-        <v>16155.5</v>
+        <v>8891.8259999999991</v>
       </c>
       <c r="I22">
-        <v>229.2</v>
+        <v>177.07499999999999</v>
       </c>
       <c r="J22">
-        <v>1348.1</v>
+        <v>904.82899999999995</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>177.315</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-27.9</v>
+        <v>-268.12400000000002</v>
       </c>
       <c r="N22">
-        <v>1098.3</v>
+        <v>774.98900000000003</v>
       </c>
       <c r="O22">
-        <v>3681.4</v>
+        <v>2521.5349999999999</v>
       </c>
       <c r="P22">
-        <v>1348.1</v>
+        <v>1082.144</v>
       </c>
       <c r="Q22">
-        <v>-99.1</v>
+        <v>474.19400000000002</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>9400</v>
+        <v>7300</v>
       </c>
       <c r="T22">
-        <v>12474.1</v>
+        <v>6370.2910000000002</v>
       </c>
       <c r="U22">
-        <v>8125</v>
+        <v>3626.3530000000001</v>
       </c>
       <c r="V22">
-        <v>295.2</v>
+        <v>546.61699999999996</v>
       </c>
       <c r="W22">
-        <v>-91.5</v>
+        <v>-25.268000000000001</v>
       </c>
       <c r="X22">
-        <v>-463.4</v>
+        <v>-220.131</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>120.5</v>
+        <v>157.482</v>
       </c>
       <c r="AA22">
-        <v>447.8</v>
+        <v>317.96899999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>360.4</v>
+        <v>196.51599999999999</v>
       </c>
       <c r="D23">
-        <v>1613.9</v>
+        <v>1254.77</v>
       </c>
       <c r="E23">
-        <v>798</v>
+        <v>811.34699999999998</v>
       </c>
       <c r="F23">
-        <v>707.9</v>
+        <v>578.23699999999997</v>
       </c>
       <c r="G23">
-        <v>11821.5</v>
+        <v>5656.7749999999996</v>
       </c>
       <c r="H23">
-        <v>15890.9</v>
+        <v>9164.9609999999993</v>
       </c>
       <c r="I23">
-        <v>173.8</v>
+        <v>160.28899999999999</v>
       </c>
       <c r="J23">
-        <v>1348.3</v>
+        <v>866.00199999999995</v>
       </c>
       <c r="K23">
-        <v>94.3</v>
+        <v>256.75900000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1002.7</v>
+        <v>962.31299999999999</v>
       </c>
       <c r="O23">
-        <v>3450.4</v>
+        <v>2529.1529999999998</v>
       </c>
       <c r="P23">
-        <v>1442.6</v>
+        <v>1122.761</v>
       </c>
       <c r="Q23">
-        <v>-228</v>
+        <v>124.084</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>9200</v>
+        <v>7500</v>
       </c>
       <c r="T23">
-        <v>12440.5</v>
+        <v>6635.808</v>
       </c>
       <c r="U23">
-        <v>7931.8</v>
+        <v>3750.4369999999999</v>
       </c>
       <c r="V23">
-        <v>134.5</v>
+        <v>213.929</v>
       </c>
       <c r="W23">
-        <v>-107.4</v>
+        <v>-30.978999999999999</v>
       </c>
       <c r="X23">
-        <v>-403.1</v>
+        <v>-4.6970000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>24.7</v>
+        <v>-90.662999999999997</v>
       </c>
       <c r="AA23">
-        <v>360.4</v>
+        <v>196.51599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>446.4</v>
+        <v>371.41399999999999</v>
       </c>
       <c r="D24">
-        <v>1634.3</v>
+        <v>1317.2750000000001</v>
       </c>
       <c r="E24">
-        <v>812.6</v>
+        <v>850.71299999999997</v>
       </c>
       <c r="F24">
-        <v>754</v>
+        <v>612.34799999999996</v>
       </c>
       <c r="G24">
-        <v>11866</v>
+        <v>5516.1440000000002</v>
       </c>
       <c r="H24">
-        <v>15997.5</v>
+        <v>8974.7430000000004</v>
       </c>
       <c r="I24">
-        <v>193</v>
+        <v>238.477</v>
       </c>
       <c r="J24">
-        <v>1348.4</v>
+        <v>639.35400000000004</v>
       </c>
       <c r="K24">
-        <v>92.6</v>
+        <v>345.767</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1076.5999999999999</v>
+        <v>1174.7909999999999</v>
       </c>
       <c r="O24">
-        <v>3586.6</v>
+        <v>2557.3029999999999</v>
       </c>
       <c r="P24">
-        <v>1441</v>
+        <v>985.12099999999998</v>
       </c>
       <c r="Q24">
-        <v>201.1</v>
+        <v>-337.24099999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="T24">
-        <v>12410.9</v>
+        <v>6417.44</v>
       </c>
       <c r="U24">
-        <v>8115.8</v>
+        <v>3413.1959999999999</v>
       </c>
       <c r="V24">
-        <v>735.7</v>
+        <v>338.52699999999999</v>
       </c>
       <c r="W24">
-        <v>-105.7</v>
+        <v>-31.122</v>
       </c>
       <c r="X24">
-        <v>-509.2</v>
+        <v>-712.13199999999995</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>20.100000000000001</v>
+        <v>40.293999999999997</v>
       </c>
       <c r="AA24">
-        <v>446.4</v>
+        <v>371.41399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>472.1</v>
+        <v>381.66899999999998</v>
       </c>
       <c r="D25">
-        <v>1611.8</v>
+        <v>1297.229</v>
       </c>
       <c r="E25">
-        <v>746.4</v>
+        <v>882.18200000000002</v>
       </c>
       <c r="F25">
-        <v>758.4</v>
+        <v>601.72</v>
       </c>
       <c r="G25">
-        <v>11912.9</v>
+        <v>5917.2950000000001</v>
       </c>
       <c r="H25">
-        <v>16098.8</v>
+        <v>9499.8590000000004</v>
       </c>
       <c r="I25">
-        <v>233.3</v>
+        <v>180.69</v>
       </c>
       <c r="J25">
-        <v>1048.8</v>
+        <v>627.91899999999998</v>
       </c>
       <c r="K25">
-        <v>52.7</v>
+        <v>400.39299999999997</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1349.7</v>
+        <v>1194.5260000000001</v>
       </c>
       <c r="O25">
-        <v>3509.5</v>
+        <v>2719.335</v>
       </c>
       <c r="P25">
-        <v>1401.2</v>
+        <v>1028.3119999999999</v>
       </c>
       <c r="Q25">
-        <v>241.2</v>
+        <v>199.93899999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>9059</v>
+        <v>7982</v>
       </c>
       <c r="T25">
-        <v>12589.3</v>
+        <v>6780.5240000000003</v>
       </c>
       <c r="U25">
-        <v>8247.1</v>
+        <v>3613.1350000000002</v>
       </c>
       <c r="V25">
-        <v>562.29999999999995</v>
+        <v>178.81700000000001</v>
       </c>
       <c r="W25">
-        <v>-104.1</v>
+        <v>-30.361000000000001</v>
       </c>
       <c r="X25">
-        <v>-425</v>
+        <v>83.522000000000006</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>136.1</v>
+        <v>-16.724</v>
       </c>
       <c r="AA25">
-        <v>472.1</v>
+        <v>381.66899999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>440.2</v>
+        <v>426.8</v>
       </c>
       <c r="D26">
-        <v>1560.8</v>
+        <v>1427.8150000000001</v>
       </c>
       <c r="E26">
-        <v>930</v>
+        <v>915.48800000000006</v>
       </c>
       <c r="F26">
-        <v>729.3</v>
+        <v>665.00099999999998</v>
       </c>
       <c r="G26">
-        <v>12243.9</v>
+        <v>6208.8379999999997</v>
       </c>
       <c r="H26">
-        <v>16210.3</v>
+        <v>9663.4760000000006</v>
       </c>
       <c r="I26">
-        <v>214.8</v>
+        <v>188.941</v>
       </c>
       <c r="J26">
-        <v>1342.8</v>
+        <v>612.98299999999995</v>
       </c>
       <c r="K26">
-        <v>51.6</v>
+        <v>289.70400000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-3.2</v>
+        <v>-250.58099999999999</v>
       </c>
       <c r="N26">
-        <v>1077.7</v>
+        <v>1056.876</v>
       </c>
       <c r="O26">
-        <v>3122.1</v>
+        <v>2439.7939999999999</v>
       </c>
       <c r="P26">
-        <v>1394.4</v>
+        <v>902.68700000000001</v>
       </c>
       <c r="Q26">
-        <v>-28.5</v>
+        <v>392.91399999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>9100</v>
+        <v>8200</v>
       </c>
       <c r="T26">
-        <v>13088.2</v>
+        <v>7223.6819999999998</v>
       </c>
       <c r="U26">
-        <v>8223.6</v>
+        <v>4006.049</v>
       </c>
       <c r="V26">
-        <v>446.2</v>
+        <v>551.27099999999996</v>
       </c>
       <c r="W26">
-        <v>-103.4</v>
+        <v>-30.385999999999999</v>
       </c>
       <c r="X26">
-        <v>-365.9</v>
+        <v>-181.71600000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>9.6999999999999993</v>
+        <v>16.071000000000002</v>
       </c>
       <c r="AA26">
-        <v>440.2</v>
+        <v>426.8</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>420.7</v>
+        <v>440.86599999999999</v>
       </c>
       <c r="D27">
-        <v>1600.6</v>
+        <v>1509.0060000000001</v>
       </c>
       <c r="E27">
-        <v>1023.5</v>
+        <v>915.29499999999996</v>
       </c>
       <c r="F27">
-        <v>722.4</v>
+        <v>668.97400000000005</v>
       </c>
       <c r="G27">
-        <v>13280.9</v>
+        <v>6156.6270000000004</v>
       </c>
       <c r="H27">
-        <v>17210.099999999999</v>
+        <v>9616.91</v>
       </c>
       <c r="I27">
-        <v>259.3</v>
+        <v>182.95</v>
       </c>
       <c r="J27">
-        <v>1343.3</v>
+        <v>602.64499999999998</v>
       </c>
       <c r="K27">
-        <v>30.8</v>
+        <v>409.64400000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>995.4</v>
+        <v>1175.223</v>
       </c>
       <c r="O27">
-        <v>3077.1</v>
+        <v>2473.502</v>
       </c>
       <c r="P27">
-        <v>1374.1</v>
+        <v>1012.289</v>
       </c>
       <c r="Q27">
-        <v>321.3</v>
+        <v>-26.881</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>9200</v>
+        <v>8300</v>
       </c>
       <c r="T27">
-        <v>14133</v>
+        <v>7143.4080000000004</v>
       </c>
       <c r="U27">
-        <v>8287.6</v>
+        <v>3979.1680000000001</v>
       </c>
       <c r="V27">
-        <v>168.1</v>
+        <v>311.86599999999999</v>
       </c>
       <c r="W27">
-        <v>-113.3</v>
+        <v>-38.037999999999997</v>
       </c>
       <c r="X27">
-        <v>4.0999999999999996</v>
+        <v>-497.32299999999998</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>133.30000000000001</v>
+        <v>164.84399999999999</v>
       </c>
       <c r="AA27">
-        <v>420.7</v>
+        <v>440.86599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>410.6</v>
+        <v>468.36399999999998</v>
       </c>
       <c r="D28">
-        <v>1613.9</v>
+        <v>1639.8109999999999</v>
       </c>
       <c r="E28">
-        <v>978.6</v>
+        <v>1052.394</v>
       </c>
       <c r="F28">
-        <v>730</v>
+        <v>727.57299999999998</v>
       </c>
       <c r="G28">
-        <v>13515.6</v>
+        <v>5831.7460000000001</v>
       </c>
       <c r="H28">
-        <v>17476.2</v>
+        <v>9454.741</v>
       </c>
       <c r="I28">
-        <v>275</v>
+        <v>218.226</v>
       </c>
       <c r="J28">
-        <v>1343.8</v>
+        <v>172.25399999999999</v>
       </c>
       <c r="K28">
-        <v>30.9</v>
+        <v>167.328</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1092.4000000000001</v>
+        <v>1469.2439999999999</v>
       </c>
       <c r="O28">
-        <v>2940.5</v>
+        <v>2373.8980000000001</v>
       </c>
       <c r="P28">
-        <v>1374.7</v>
+        <v>759.58199999999999</v>
       </c>
       <c r="Q28">
-        <v>10.1</v>
+        <v>-403.12200000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>9400</v>
+        <v>8700</v>
       </c>
       <c r="T28">
-        <v>14535.7</v>
+        <v>7080.8429999999998</v>
       </c>
       <c r="U28">
-        <v>8564.7999999999993</v>
+        <v>3576.0459999999998</v>
       </c>
       <c r="V28">
-        <v>344</v>
+        <v>670.71500000000003</v>
       </c>
       <c r="W28">
-        <v>-112.7</v>
+        <v>-37.439</v>
       </c>
       <c r="X28">
-        <v>-369</v>
+        <v>-785.7</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>11.7</v>
+        <v>-159.69300000000001</v>
       </c>
       <c r="AA28">
-        <v>410.6</v>
+        <v>468.36399999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>425.2</v>
+        <v>436.90800000000002</v>
       </c>
       <c r="D29">
-        <v>1616.9</v>
+        <v>1629.1369999999999</v>
       </c>
       <c r="E29">
-        <v>767.8</v>
+        <v>1105.6479999999999</v>
       </c>
       <c r="F29">
-        <v>745.9</v>
+        <v>773.94200000000001</v>
       </c>
       <c r="G29">
-        <v>13533.5</v>
+        <v>6338.1369999999997</v>
       </c>
       <c r="H29">
-        <v>17534</v>
+        <v>9932.2720000000008</v>
       </c>
       <c r="I29">
-        <v>167.4</v>
+        <v>272.24799999999999</v>
       </c>
       <c r="J29">
-        <v>1044.2</v>
+        <v>162.125</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>240.773</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1189.4000000000001</v>
+        <v>1676.4159999999999</v>
       </c>
       <c r="O29">
-        <v>2656.3</v>
+        <v>2558.5929999999998</v>
       </c>
       <c r="P29">
-        <v>1044.2</v>
+        <v>822.89800000000002</v>
       </c>
       <c r="Q29">
-        <v>-36.5</v>
+        <v>8.1370000000000005</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>9386</v>
+        <v>8699</v>
       </c>
       <c r="T29">
-        <v>14877.7</v>
+        <v>7373.6790000000001</v>
       </c>
       <c r="U29">
-        <v>8523.2999999999993</v>
+        <v>3584.183</v>
       </c>
       <c r="V29">
-        <v>177.1</v>
+        <v>139.78100000000001</v>
       </c>
       <c r="W29">
-        <v>-111.8</v>
+        <v>-36.884</v>
       </c>
       <c r="X29">
-        <v>-225.2</v>
+        <v>15.492000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>71.099999999999994</v>
+        <v>-148.995</v>
       </c>
       <c r="AA29">
-        <v>425.2</v>
+        <v>436.90800000000002</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-583.29999999999995</v>
+        <v>518.31600000000003</v>
       </c>
       <c r="D30">
-        <v>1615.5</v>
+        <v>1685.5909999999999</v>
       </c>
       <c r="E30">
-        <v>769.7</v>
+        <v>1052.5889999999999</v>
       </c>
       <c r="F30">
-        <v>754.3</v>
+        <v>808.16</v>
       </c>
       <c r="G30">
-        <v>14017.7</v>
+        <v>5975.6440000000002</v>
       </c>
       <c r="H30">
-        <v>18074.400000000001</v>
+        <v>9672.7510000000002</v>
       </c>
       <c r="I30">
-        <v>165.3</v>
+        <v>206.40600000000001</v>
       </c>
       <c r="J30">
-        <v>1044.5</v>
+        <v>156.82400000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>340.25400000000002</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-2.4</v>
+        <v>-24.702999999999999</v>
       </c>
       <c r="N30">
-        <v>2354.1999999999998</v>
+        <v>1589.2460000000001</v>
       </c>
       <c r="O30">
-        <v>3785.8</v>
+        <v>2621.8580000000002</v>
       </c>
       <c r="P30">
-        <v>1044.5</v>
+        <v>917.07799999999997</v>
       </c>
       <c r="Q30">
-        <v>220.7</v>
+        <v>-701.91</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>9500</v>
+        <v>8900</v>
       </c>
       <c r="T30">
-        <v>14288.6</v>
+        <v>7050.893</v>
       </c>
       <c r="U30">
-        <v>8707.5</v>
+        <v>2882.2730000000001</v>
       </c>
       <c r="V30">
-        <v>320.39999999999998</v>
+        <v>204.00800000000001</v>
       </c>
       <c r="W30">
-        <v>-111.7</v>
+        <v>-36.790999999999997</v>
       </c>
       <c r="X30">
-        <v>-51.1</v>
+        <v>-562.82399999999996</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>5.7</v>
+        <v>-289.66399999999999</v>
       </c>
       <c r="AA30">
-        <v>-583.29999999999995</v>
+        <v>518.31600000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>443.2</v>
+        <v>366.096</v>
       </c>
       <c r="D31">
-        <v>1617.8</v>
+        <v>1503.692</v>
       </c>
       <c r="E31">
-        <v>765.4</v>
+        <v>1017.879</v>
       </c>
       <c r="F31">
-        <v>740.8</v>
+        <v>694.13300000000004</v>
       </c>
       <c r="G31">
-        <v>13504.4</v>
+        <v>6272.5309999999999</v>
       </c>
       <c r="H31">
-        <v>17690</v>
+        <v>9944.7219999999998</v>
       </c>
       <c r="I31">
-        <v>194.6</v>
+        <v>211.667</v>
       </c>
       <c r="J31">
-        <v>1044.8</v>
+        <v>154.07599999999999</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>760.09</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>3806.9</v>
+        <v>1907.145</v>
       </c>
       <c r="O31">
-        <v>5203.3999999999996</v>
+        <v>2914.4690000000001</v>
       </c>
       <c r="P31">
-        <v>1044.8</v>
+        <v>1334.1659999999999</v>
       </c>
       <c r="Q31">
-        <v>-243.9</v>
+        <v>781.43399999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="T31">
-        <v>12486.6</v>
+        <v>7030.2529999999997</v>
       </c>
       <c r="U31">
-        <v>8545.4</v>
+        <v>3663.7069999999999</v>
       </c>
       <c r="V31">
-        <v>576.6</v>
+        <v>273.09800000000001</v>
       </c>
       <c r="W31">
-        <v>-127.3</v>
+        <v>-47.956000000000003</v>
       </c>
       <c r="X31">
-        <v>-713.4</v>
+        <v>199.935</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-85.5</v>
+        <v>334.00700000000001</v>
       </c>
       <c r="AA31">
-        <v>443.2</v>
+        <v>366.096</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>402</v>
+        <v>403.31200000000001</v>
       </c>
       <c r="D32">
-        <v>1558.6</v>
+        <v>1521.6489999999999</v>
       </c>
       <c r="E32">
-        <v>814.9</v>
+        <v>1094.9839999999999</v>
       </c>
       <c r="F32">
-        <v>701.3</v>
+        <v>701.678</v>
       </c>
       <c r="G32">
-        <v>11405.5</v>
+        <v>5620.98</v>
       </c>
       <c r="H32">
-        <v>15528</v>
+        <v>9344.5640000000003</v>
       </c>
       <c r="I32">
-        <v>177.5</v>
+        <v>253.10499999999999</v>
       </c>
       <c r="J32">
-        <v>695.7</v>
+        <v>161.41499999999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>158.38399999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2257.3000000000002</v>
+        <v>1083.683</v>
       </c>
       <c r="O32">
-        <v>3306</v>
+        <v>2140.9989999999998</v>
       </c>
       <c r="P32">
-        <v>695.7</v>
+        <v>384.79899999999998</v>
       </c>
       <c r="Q32">
-        <v>-2072.3000000000002</v>
+        <v>-619.59299999999996</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="T32">
-        <v>12222</v>
+        <v>7203.5649999999996</v>
       </c>
       <c r="U32">
-        <v>6422.6</v>
+        <v>3044.114</v>
       </c>
       <c r="V32">
-        <v>611.5</v>
+        <v>934.37199999999996</v>
       </c>
       <c r="W32">
-        <v>-1755.9</v>
+        <v>-47.274000000000001</v>
       </c>
       <c r="X32">
-        <v>-2552.1999999999998</v>
+        <v>-1078.066</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-16.5</v>
+        <v>-363.755</v>
       </c>
       <c r="AA32">
-        <v>402</v>
+        <v>403.31200000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>502.5</v>
+        <v>300.48899999999998</v>
       </c>
       <c r="D33">
-        <v>1527.2</v>
+        <v>1321.454</v>
       </c>
       <c r="E33">
-        <v>733.7</v>
+        <v>1061.998</v>
       </c>
       <c r="F33">
-        <v>692.4</v>
+        <v>592.64099999999996</v>
       </c>
       <c r="G33">
-        <v>10213.6</v>
+        <v>5578.2020000000002</v>
       </c>
       <c r="H33">
-        <v>14383.5</v>
+        <v>9176.52</v>
       </c>
       <c r="I33">
-        <v>158.9</v>
+        <v>289.98500000000001</v>
       </c>
       <c r="J33">
-        <v>695.9</v>
+        <v>227.43299999999999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>41.838000000000001</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2092.9</v>
+        <v>964.44100000000003</v>
       </c>
       <c r="O33">
-        <v>3132</v>
+        <v>2024.9939999999999</v>
       </c>
       <c r="P33">
-        <v>695.9</v>
+        <v>269.27100000000002</v>
       </c>
       <c r="Q33">
-        <v>256.39999999999998</v>
+        <v>-516.56200000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>9691</v>
+        <v>8809</v>
       </c>
       <c r="T33">
-        <v>11251.5</v>
+        <v>7151.5259999999998</v>
       </c>
       <c r="U33">
-        <v>6610.8</v>
+        <v>2527.5520000000001</v>
       </c>
       <c r="V33">
-        <v>721.2</v>
+        <v>-2.2370000000000001</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-47.012</v>
       </c>
       <c r="X33">
-        <v>-445</v>
+        <v>140.97999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>23.8</v>
+        <v>-550.49400000000003</v>
       </c>
       <c r="AA33">
-        <v>502.5</v>
+        <v>300.48899999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>275.89999999999998</v>
+        <v>120.9</v>
       </c>
       <c r="D34">
-        <v>1411.5</v>
+        <v>969.33</v>
       </c>
       <c r="E34">
-        <v>723.9</v>
+        <v>908.79499999999996</v>
       </c>
       <c r="F34">
-        <v>612</v>
+        <v>399.12599999999998</v>
       </c>
       <c r="G34">
-        <v>9584.5</v>
+        <v>5401.4369999999999</v>
       </c>
       <c r="H34">
-        <v>13950.6</v>
+        <v>8987.3520000000008</v>
       </c>
       <c r="I34">
-        <v>180.5</v>
+        <v>224.32900000000001</v>
       </c>
       <c r="J34">
-        <v>697.7</v>
+        <v>153.102</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>36.176000000000002</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-67.551000000000002</v>
       </c>
       <c r="N34">
-        <v>1931.5</v>
+        <v>716.17100000000005</v>
       </c>
       <c r="O34">
-        <v>2941.6</v>
+        <v>1894.075</v>
       </c>
       <c r="P34">
-        <v>697.7</v>
+        <v>258.27800000000002</v>
       </c>
       <c r="Q34">
-        <v>-251.7</v>
+        <v>309.245</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>9700</v>
+        <v>8600</v>
       </c>
       <c r="T34">
-        <v>11009</v>
+        <v>7093.277</v>
       </c>
       <c r="U34">
-        <v>6430.7</v>
+        <v>2836.797</v>
       </c>
       <c r="V34">
-        <v>254.8</v>
+        <v>41.945</v>
       </c>
       <c r="W34">
-        <v>-122.3</v>
+        <v>-46.54</v>
       </c>
       <c r="X34">
-        <v>-396.1</v>
+        <v>152.071</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-42.5</v>
+        <v>167.036</v>
       </c>
       <c r="AA34">
-        <v>275.89999999999998</v>
+        <v>120.9</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>367.5</v>
+        <v>110.806</v>
       </c>
       <c r="D35">
-        <v>1433.8</v>
+        <v>912.27200000000005</v>
       </c>
       <c r="E35">
-        <v>747.5</v>
+        <v>878.03800000000001</v>
       </c>
       <c r="F35">
-        <v>603.5</v>
+        <v>373.75200000000001</v>
       </c>
       <c r="G35">
-        <v>8983.7000000000007</v>
+        <v>5232.0619999999999</v>
       </c>
       <c r="H35">
-        <v>14239</v>
+        <v>8830.4359999999997</v>
       </c>
       <c r="I35">
-        <v>210.1</v>
+        <v>275.42099999999999</v>
       </c>
       <c r="J35">
-        <v>697.9</v>
+        <v>151.72</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>24.995999999999999</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,81 +3631,81 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1951.9</v>
+        <v>680.495</v>
       </c>
       <c r="O35">
-        <v>2920.6</v>
+        <v>1741.691</v>
       </c>
       <c r="P35">
-        <v>697.9</v>
+        <v>231.71600000000001</v>
       </c>
       <c r="Q35">
-        <v>-712.9</v>
+        <v>-392.46100000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>9900</v>
+        <v>8200</v>
       </c>
       <c r="T35">
-        <v>11318.4</v>
+        <v>7088.7449999999999</v>
       </c>
       <c r="U35">
-        <v>5680.6</v>
+        <v>2444.3359999999998</v>
       </c>
       <c r="V35">
-        <v>189.4</v>
+        <v>204.66399999999999</v>
       </c>
       <c r="W35">
-        <v>-133.1</v>
+        <v>-48.935000000000002</v>
       </c>
       <c r="X35">
-        <v>-266.7</v>
+        <v>-244.114</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>71.400000000000006</v>
+        <v>-338.86900000000003</v>
       </c>
       <c r="AA35">
-        <v>367.5</v>
+        <v>110.806</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>245.9</v>
+        <v>297.71600000000001</v>
       </c>
       <c r="D36">
-        <v>1476.7</v>
+        <v>1073.558</v>
       </c>
       <c r="E36">
-        <v>757.8</v>
+        <v>892.43600000000004</v>
       </c>
       <c r="F36">
-        <v>636.9</v>
+        <v>459.17500000000001</v>
       </c>
       <c r="G36">
-        <v>9031.7000000000007</v>
+        <v>5536.4709999999995</v>
       </c>
       <c r="H36">
-        <v>14463.3</v>
+        <v>9242.9060000000009</v>
       </c>
       <c r="I36">
-        <v>207.8</v>
+        <v>296.21499999999997</v>
       </c>
       <c r="J36">
-        <v>697</v>
+        <v>126.315</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2004</v>
+        <v>770.47299999999996</v>
       </c>
       <c r="O36">
-        <v>3091</v>
+        <v>1812.66</v>
       </c>
       <c r="P36">
-        <v>697</v>
+        <v>180.75</v>
       </c>
       <c r="Q36">
-        <v>-188.4</v>
+        <v>-73.671000000000006</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>9800</v>
+        <v>7800</v>
       </c>
       <c r="T36">
-        <v>11372.3</v>
+        <v>7430.2460000000001</v>
       </c>
       <c r="U36">
-        <v>5508.8</v>
+        <v>2370.665</v>
       </c>
       <c r="V36">
-        <v>-274.89999999999998</v>
+        <v>242.40100000000001</v>
       </c>
       <c r="W36">
-        <v>-132.1</v>
+        <v>-48.795000000000002</v>
       </c>
       <c r="X36">
-        <v>360.8</v>
+        <v>-162.51</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-96</v>
+        <v>-235.00299999999999</v>
       </c>
       <c r="AA36">
-        <v>245.9</v>
+        <v>297.71600000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>306.39999999999998</v>
+        <v>367.35599999999999</v>
       </c>
       <c r="D37">
-        <v>1347.4</v>
+        <v>1238.9269999999999</v>
       </c>
       <c r="E37">
-        <v>740</v>
+        <v>892.31399999999996</v>
       </c>
       <c r="F37">
-        <v>527.29999999999995</v>
+        <v>535.72299999999996</v>
       </c>
       <c r="G37">
-        <v>9100.5</v>
+        <v>5787.4359999999997</v>
       </c>
       <c r="H37">
-        <v>14532.2</v>
+        <v>9468.4629999999997</v>
       </c>
       <c r="I37">
-        <v>222.9</v>
+        <v>174.52500000000001</v>
       </c>
       <c r="J37">
-        <v>696.9</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>64.156000000000006</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2022.9</v>
+        <v>725.54</v>
       </c>
       <c r="O37">
-        <v>3161.3</v>
+        <v>1768.902</v>
       </c>
       <c r="P37">
-        <v>696.9</v>
+        <v>121.15600000000001</v>
       </c>
       <c r="Q37">
-        <v>200</v>
+        <v>733.78599999999994</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>9600</v>
+        <v>7745</v>
       </c>
       <c r="T37">
-        <v>11370.9</v>
+        <v>7699.5609999999997</v>
       </c>
       <c r="U37">
-        <v>5803.4</v>
+        <v>3104.451</v>
       </c>
       <c r="V37">
-        <v>32.299999999999997</v>
+        <v>152.392</v>
       </c>
       <c r="W37">
-        <v>-131.1</v>
+        <v>-48.514000000000003</v>
       </c>
       <c r="X37">
-        <v>261.5</v>
+        <v>-86.055000000000007</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>16.399999999999999</v>
+        <v>690.20500000000004</v>
       </c>
       <c r="AA37">
-        <v>306.39999999999998</v>
+        <v>367.35599999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>350.5</v>
+        <v>355.60300000000001</v>
       </c>
       <c r="D38">
-        <v>1389.2</v>
+        <v>1378.4639999999999</v>
       </c>
       <c r="E38">
-        <v>710.9</v>
+        <v>994.91</v>
       </c>
       <c r="F38">
-        <v>577.20000000000005</v>
+        <v>588.55899999999997</v>
       </c>
       <c r="G38">
-        <v>8852.5</v>
+        <v>5574.86</v>
       </c>
       <c r="H38">
-        <v>15001.8</v>
+        <v>9224.1290000000008</v>
       </c>
       <c r="I38">
-        <v>194</v>
+        <v>159.905</v>
       </c>
       <c r="J38">
-        <v>697</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>256.65699999999998</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1953.6</v>
+        <v>986.30700000000002</v>
       </c>
       <c r="O38">
-        <v>3377</v>
+        <v>2052.739</v>
       </c>
       <c r="P38">
-        <v>1014.9</v>
+        <v>322.65699999999998</v>
       </c>
       <c r="Q38">
-        <v>18.7</v>
+        <v>-254.143</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>9600</v>
+        <v>7800</v>
       </c>
       <c r="T38">
-        <v>11624.8</v>
+        <v>7171.39</v>
       </c>
       <c r="U38">
-        <v>5817.3</v>
+        <v>2850.308</v>
       </c>
       <c r="V38">
-        <v>31.7</v>
+        <v>317.07499999999999</v>
       </c>
       <c r="W38">
-        <v>-130.6</v>
+        <v>-47.951309999999999</v>
       </c>
       <c r="X38">
-        <v>-9.3000000000000007</v>
+        <v>-640.59100000000001</v>
       </c>
       <c r="Y38">
-        <v>278.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.3</v>
+        <v>131.233</v>
       </c>
       <c r="AA38">
-        <v>350.5</v>
+        <v>355.60300000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>79.099999999999994</v>
+        <v>356.685</v>
       </c>
       <c r="D39">
-        <v>1338.3</v>
+        <v>1414.52</v>
       </c>
       <c r="E39">
-        <v>630.79999999999995</v>
+        <v>994.02</v>
       </c>
       <c r="F39">
-        <v>575.9</v>
+        <v>586.08100000000002</v>
       </c>
       <c r="G39">
-        <v>8686.9</v>
+        <v>5737.4620000000004</v>
       </c>
       <c r="H39">
-        <v>14666.2</v>
+        <v>9520.5820000000003</v>
       </c>
       <c r="I39">
-        <v>213.3</v>
+        <v>173.036</v>
       </c>
       <c r="J39">
-        <v>697.2</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>285.97000000000003</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1768.2</v>
+        <v>1004.638</v>
       </c>
       <c r="O39">
-        <v>3703.6</v>
+        <v>2104.0160000000001</v>
       </c>
       <c r="P39">
-        <v>1006.1</v>
+        <v>351.97</v>
       </c>
       <c r="Q39">
-        <v>59.5</v>
+        <v>173.31200000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>9600</v>
+        <v>7800</v>
       </c>
       <c r="T39">
-        <v>10962.6</v>
+        <v>7416.5659999999998</v>
       </c>
       <c r="U39">
-        <v>5801.4</v>
+        <v>3023.62</v>
       </c>
       <c r="V39">
-        <v>109.3</v>
+        <v>379.322</v>
       </c>
       <c r="W39">
-        <v>-134.6</v>
+        <v>-50.862000000000002</v>
       </c>
       <c r="X39">
-        <v>-54.8</v>
+        <v>-93.369</v>
       </c>
       <c r="Y39">
-        <v>284.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-113.6</v>
+        <v>-76.210999999999999</v>
       </c>
       <c r="AA39">
-        <v>79.099999999999994</v>
+        <v>356.685</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>290.39999999999998</v>
+        <v>360.495</v>
       </c>
       <c r="D40">
-        <v>1188.0999999999999</v>
+        <v>1534.3330000000001</v>
       </c>
       <c r="E40">
-        <v>810.3</v>
+        <v>1051.9269999999999</v>
       </c>
       <c r="F40">
-        <v>384.5</v>
+        <v>663.12400000000002</v>
       </c>
       <c r="G40">
-        <v>10178</v>
+        <v>6563.6989999999996</v>
       </c>
       <c r="H40">
-        <v>15617</v>
+        <v>10409.814</v>
       </c>
       <c r="I40">
-        <v>187.3</v>
+        <v>342.14499999999998</v>
       </c>
       <c r="J40">
-        <v>697.2</v>
+        <v>949.83600000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1883.8</v>
+        <v>992.322</v>
       </c>
       <c r="O40">
-        <v>3899.5</v>
+        <v>2951.1080000000002</v>
       </c>
       <c r="P40">
-        <v>997.8</v>
+        <v>949.83600000000001</v>
       </c>
       <c r="Q40">
-        <v>940.1</v>
+        <v>967.00199999999995</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>9500</v>
+        <v>7900</v>
       </c>
       <c r="T40">
-        <v>11717.5</v>
+        <v>7458.7060000000001</v>
       </c>
       <c r="U40">
-        <v>6358.7</v>
+        <v>3990.6219999999998</v>
       </c>
       <c r="V40">
-        <v>505.6</v>
+        <v>643.54</v>
       </c>
       <c r="W40">
-        <v>-133.9</v>
+        <v>-50.061</v>
       </c>
       <c r="X40">
-        <v>160.5</v>
+        <v>319.33999999999997</v>
       </c>
       <c r="Y40">
-        <v>300.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>6.3</v>
+        <v>49.578000000000003</v>
       </c>
       <c r="AA40">
-        <v>290.39999999999998</v>
+        <v>360.495</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>372.90600000000001</v>
       </c>
       <c r="D41">
-        <v>1627.4</v>
+        <v>1528.934</v>
       </c>
       <c r="E41">
-        <v>1114.8</v>
+        <v>1059.1089999999999</v>
       </c>
       <c r="F41">
-        <v>679</v>
+        <v>654.60599999999999</v>
       </c>
       <c r="G41">
-        <v>7867.3</v>
+        <v>6899.4449999999997</v>
       </c>
       <c r="H41">
-        <v>20220.900000000001</v>
+        <v>10708.088</v>
       </c>
       <c r="I41">
-        <v>283.7</v>
+        <v>244.203</v>
       </c>
       <c r="J41">
-        <v>3017.1</v>
+        <v>949.90300000000002</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>29.997</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3183.5</v>
+        <v>1150.0329999999999</v>
       </c>
       <c r="O41">
-        <v>8705.2000000000007</v>
+        <v>2958.1089999999999</v>
       </c>
       <c r="P41">
-        <v>3638.1</v>
+        <v>979.9</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>133.09399999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>11800</v>
+        <v>7927</v>
       </c>
       <c r="T41">
-        <v>11515.7</v>
+        <v>7749.9790000000003</v>
       </c>
       <c r="U41">
-        <v>3026.8</v>
+        <v>4123.7160000000003</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>311.10199999999998</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-49.646000000000001</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>-180.29900000000001</v>
       </c>
       <c r="Y41">
-        <v>486.2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-15.64</v>
       </c>
       <c r="AA41">
-        <v>78.900000000000006</v>
+        <v>372.90600000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>501.15699999999998</v>
+      </c>
+      <c r="D42">
+        <v>1700.3130000000001</v>
+      </c>
+      <c r="E42">
+        <v>1212.18</v>
+      </c>
+      <c r="F42">
+        <v>760.76599999999996</v>
+      </c>
+      <c r="G42">
+        <v>7622.3940000000002</v>
+      </c>
+      <c r="H42">
+        <v>12391.955</v>
+      </c>
+      <c r="I42">
+        <v>291.012</v>
+      </c>
+      <c r="J42">
+        <v>949.971</v>
+      </c>
+      <c r="K42">
+        <v>27.248000000000001</v>
+      </c>
+      <c r="L42">
+        <v>-2.7669999999999999</v>
+      </c>
+      <c r="M42">
+        <v>-89.721000000000004</v>
+      </c>
+      <c r="N42">
+        <v>1108.329</v>
+      </c>
+      <c r="O42">
+        <v>4238.4319999999998</v>
+      </c>
+      <c r="P42">
+        <v>977.21900000000005</v>
+      </c>
+      <c r="Q42">
+        <v>197.31399999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8000</v>
+      </c>
+      <c r="T42">
+        <v>8153.5230000000001</v>
+      </c>
+      <c r="U42">
+        <v>4247.7939999999999</v>
+      </c>
+      <c r="V42">
+        <v>245.77600000000001</v>
+      </c>
+      <c r="W42">
+        <v>-49.762999999999998</v>
+      </c>
+      <c r="X42">
+        <v>-292.71199999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>236.333</v>
+      </c>
+      <c r="AA42">
+        <v>501.15699999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>503.1</v>
+      </c>
+      <c r="D43">
+        <v>1749.5630000000001</v>
+      </c>
+      <c r="E43">
+        <v>1208.019</v>
+      </c>
+      <c r="F43">
+        <v>756.81799999999998</v>
+      </c>
+      <c r="G43">
+        <v>8057.3220000000001</v>
+      </c>
+      <c r="H43">
+        <v>12827.382</v>
+      </c>
+      <c r="I43">
+        <v>265.60500000000002</v>
+      </c>
+      <c r="J43">
+        <v>948.03899999999999</v>
+      </c>
+      <c r="K43">
+        <v>29.995000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1173.0989999999999</v>
+      </c>
+      <c r="O43">
+        <v>4377.4350000000004</v>
+      </c>
+      <c r="P43">
+        <v>980.03399999999999</v>
+      </c>
+      <c r="Q43">
+        <v>347.41300000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>8100</v>
+      </c>
+      <c r="T43">
+        <v>8449.9470000000001</v>
+      </c>
+      <c r="U43">
+        <v>4549.366</v>
+      </c>
+      <c r="V43">
+        <v>242.56800000000001</v>
+      </c>
+      <c r="W43">
+        <v>-55.92</v>
+      </c>
+      <c r="X43">
+        <v>-221.10900000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>349.815</v>
+      </c>
+      <c r="AA43">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>503.34699999999998</v>
+      </c>
+      <c r="D44">
+        <v>1853.0329999999999</v>
+      </c>
+      <c r="E44">
+        <v>1269.5889999999999</v>
+      </c>
+      <c r="F44">
+        <v>820.13</v>
+      </c>
+      <c r="G44">
+        <v>8362.634</v>
+      </c>
+      <c r="H44">
+        <v>13150.999</v>
+      </c>
+      <c r="I44">
+        <v>247.41</v>
+      </c>
+      <c r="J44">
+        <v>948.10599999999999</v>
+      </c>
+      <c r="K44">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1280.655</v>
+      </c>
+      <c r="O44">
+        <v>4352.402</v>
+      </c>
+      <c r="P44">
+        <v>978.10500000000002</v>
+      </c>
+      <c r="Q44">
+        <v>51.545999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>8500</v>
+      </c>
+      <c r="T44">
+        <v>8798.5969999999998</v>
+      </c>
+      <c r="U44">
+        <v>4642.0969999999998</v>
+      </c>
+      <c r="V44">
+        <v>520.255</v>
+      </c>
+      <c r="W44">
+        <v>-55.51</v>
+      </c>
+      <c r="X44">
+        <v>-355.93799999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-123.51600000000001</v>
+      </c>
+      <c r="AA44">
+        <v>503.34699999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>415.99599999999998</v>
+      </c>
+      <c r="D45">
+        <v>1837.0909999999999</v>
+      </c>
+      <c r="E45">
+        <v>1324.5</v>
+      </c>
+      <c r="F45">
+        <v>858.28599999999994</v>
+      </c>
+      <c r="G45">
+        <v>8820</v>
+      </c>
+      <c r="H45">
+        <v>13775.8</v>
+      </c>
+      <c r="I45">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="J45">
+        <v>968.2</v>
+      </c>
+      <c r="K45">
+        <v>30</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1409.9</v>
+      </c>
+      <c r="O45">
+        <v>4653.3</v>
+      </c>
+      <c r="P45">
+        <v>998.2</v>
+      </c>
+      <c r="Q45">
+        <v>478.62700000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>8453</v>
+      </c>
+      <c r="T45">
+        <v>9122.5</v>
+      </c>
+      <c r="U45">
+        <v>5028.8999999999996</v>
+      </c>
+      <c r="V45">
+        <v>613.20100000000002</v>
+      </c>
+      <c r="W45">
+        <v>-55.106999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-98.441000000000003</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-34.031999999999996</v>
+      </c>
+      <c r="AA45">
+        <v>415.99599999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>480.8</v>
+      </c>
+      <c r="D46">
+        <v>1701.9</v>
+      </c>
+      <c r="E46">
+        <v>1171.7650000000001</v>
+      </c>
+      <c r="F46">
+        <v>770.9</v>
+      </c>
+      <c r="G46">
+        <v>8189.41</v>
+      </c>
+      <c r="H46">
+        <v>13405.486999999999</v>
+      </c>
+      <c r="I46">
+        <v>206.684</v>
+      </c>
+      <c r="J46">
+        <v>968.24199999999996</v>
+      </c>
+      <c r="K46">
+        <v>25</v>
+      </c>
+      <c r="L46">
+        <v>-5</v>
+      </c>
+      <c r="M46">
+        <v>-115.9</v>
+      </c>
+      <c r="N46">
+        <v>1040.924</v>
+      </c>
+      <c r="O46">
+        <v>4445.5860000000002</v>
+      </c>
+      <c r="P46">
+        <v>993.24199999999996</v>
+      </c>
+      <c r="Q46">
+        <v>-286.7</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>8500</v>
+      </c>
+      <c r="T46">
+        <v>8959.9009999999998</v>
+      </c>
+      <c r="U46">
+        <v>4839.5420000000004</v>
+      </c>
+      <c r="V46">
+        <v>167.7</v>
+      </c>
+      <c r="W46">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="X46">
+        <v>-681.4</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>225.4</v>
+      </c>
+      <c r="AA46">
+        <v>480.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>503.2</v>
+      </c>
+      <c r="D47">
+        <v>1799.3</v>
+      </c>
+      <c r="E47">
+        <v>1113.335</v>
+      </c>
+      <c r="F47">
+        <v>760.8</v>
+      </c>
+      <c r="G47">
+        <v>8561.6260000000002</v>
+      </c>
+      <c r="H47">
+        <v>13662.808000000001</v>
+      </c>
+      <c r="I47">
+        <v>341.47500000000002</v>
+      </c>
+      <c r="J47">
+        <v>968.31</v>
+      </c>
+      <c r="K47">
+        <v>24.998000000000001</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1116.704</v>
+      </c>
+      <c r="O47">
+        <v>4286.5590000000002</v>
+      </c>
+      <c r="P47">
+        <v>993.30799999999999</v>
+      </c>
+      <c r="Q47">
+        <v>167.2</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>8500</v>
+      </c>
+      <c r="T47">
+        <v>9376.2489999999998</v>
+      </c>
+      <c r="U47">
+        <v>5024.0770000000002</v>
+      </c>
+      <c r="V47">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="W47">
+        <v>-0.5</v>
+      </c>
+      <c r="X47">
+        <v>-365.3</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>202.1</v>
+      </c>
+      <c r="AA47">
+        <v>503.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>455.3</v>
+      </c>
+      <c r="D48">
+        <v>1783.6</v>
+      </c>
+      <c r="E48">
+        <v>1059.9870000000001</v>
+      </c>
+      <c r="F48">
+        <v>777</v>
+      </c>
+      <c r="G48">
+        <v>8411.1170000000002</v>
+      </c>
+      <c r="H48">
+        <v>13634.313</v>
+      </c>
+      <c r="I48">
+        <v>278.10899999999998</v>
+      </c>
+      <c r="J48">
+        <v>668.53499999999997</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1385.9760000000001</v>
+      </c>
+      <c r="O48">
+        <v>4297.6940000000004</v>
+      </c>
+      <c r="P48">
+        <v>968.37699999999995</v>
+      </c>
+      <c r="Q48">
+        <v>306</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>8600</v>
+      </c>
+      <c r="T48">
+        <v>9336.6190000000006</v>
+      </c>
+      <c r="U48">
+        <v>5342.6890000000003</v>
+      </c>
+      <c r="V48">
+        <v>407.5</v>
+      </c>
+      <c r="W48">
+        <v>-58.1</v>
+      </c>
+      <c r="X48">
+        <v>-244</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>80.3</v>
+      </c>
+      <c r="AA48">
+        <v>455.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>492.1</v>
+      </c>
+      <c r="D49">
+        <v>1816.2</v>
+      </c>
+      <c r="E49">
+        <v>1104.5999999999999</v>
+      </c>
+      <c r="F49">
+        <v>797.1</v>
+      </c>
+      <c r="G49">
+        <v>10317.299999999999</v>
+      </c>
+      <c r="H49">
+        <v>14751.5</v>
+      </c>
+      <c r="I49">
+        <v>241.6</v>
+      </c>
+      <c r="J49">
+        <v>1566.1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="O49">
+        <v>4964.3</v>
+      </c>
+      <c r="P49">
+        <v>1566.1</v>
+      </c>
+      <c r="Q49">
+        <v>666.3</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>8558</v>
+      </c>
+      <c r="T49">
+        <v>9787.2000000000007</v>
+      </c>
+      <c r="U49">
+        <v>5784.3</v>
+      </c>
+      <c r="V49">
+        <v>180.4</v>
+      </c>
+      <c r="W49">
+        <v>-57.5</v>
+      </c>
+      <c r="X49">
+        <v>205.8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>46.9</v>
+      </c>
+      <c r="AA49">
+        <v>492.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>516.1</v>
+      </c>
+      <c r="D50">
+        <v>1901.8</v>
+      </c>
+      <c r="E50">
+        <v>1187.4000000000001</v>
+      </c>
+      <c r="F50">
+        <v>835.8</v>
+      </c>
+      <c r="G50">
+        <v>9795.2000000000007</v>
+      </c>
+      <c r="H50">
+        <v>14354.2</v>
+      </c>
+      <c r="I50">
+        <v>194.1</v>
+      </c>
+      <c r="J50">
+        <v>1244.8</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-666.5</v>
+      </c>
+      <c r="N50">
+        <v>925.6</v>
+      </c>
+      <c r="O50">
+        <v>4753.2</v>
+      </c>
+      <c r="P50">
+        <v>1263.3</v>
+      </c>
+      <c r="Q50">
+        <v>-808.7</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>8700</v>
+      </c>
+      <c r="T50">
+        <v>9601</v>
+      </c>
+      <c r="U50">
+        <v>5086.8</v>
+      </c>
+      <c r="V50">
+        <v>286.39999999999998</v>
+      </c>
+      <c r="W50">
+        <v>-66.81</v>
+      </c>
+      <c r="X50">
+        <v>-1140.4000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>63.4</v>
+      </c>
+      <c r="AA50">
+        <v>516.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>572.79999999999995</v>
+      </c>
+      <c r="D51">
+        <v>2013.6</v>
+      </c>
+      <c r="E51">
+        <v>1232.9000000000001</v>
+      </c>
+      <c r="F51">
+        <v>877.7</v>
+      </c>
+      <c r="G51">
+        <v>10244.4</v>
+      </c>
+      <c r="H51">
+        <v>14810.2</v>
+      </c>
+      <c r="I51">
+        <v>246.6</v>
+      </c>
+      <c r="J51">
+        <v>1244.9000000000001</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1041.0999999999999</v>
+      </c>
+      <c r="O51">
+        <v>4651.8</v>
+      </c>
+      <c r="P51">
+        <v>1263.4000000000001</v>
+      </c>
+      <c r="Q51">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>8700</v>
+      </c>
+      <c r="T51">
+        <v>10158.4</v>
+      </c>
+      <c r="U51">
+        <v>5411.3</v>
+      </c>
+      <c r="V51">
+        <v>485.4</v>
+      </c>
+      <c r="W51">
+        <v>-1.4</v>
+      </c>
+      <c r="X51">
+        <v>-209.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA51">
+        <v>572.79999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>552.29999999999995</v>
+      </c>
+      <c r="D52">
+        <v>2084.8000000000002</v>
+      </c>
+      <c r="E52">
+        <v>1194.9000000000001</v>
+      </c>
+      <c r="F52">
+        <v>926.5</v>
+      </c>
+      <c r="G52">
+        <v>10832</v>
+      </c>
+      <c r="H52">
+        <v>15317.2</v>
+      </c>
+      <c r="I52">
+        <v>272.7</v>
+      </c>
+      <c r="J52">
+        <v>1245.0999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1153.9000000000001</v>
+      </c>
+      <c r="O52">
+        <v>4794.1000000000004</v>
+      </c>
+      <c r="P52">
+        <v>1252.0999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>676.3</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>9000</v>
+      </c>
+      <c r="T52">
+        <v>10523.1</v>
+      </c>
+      <c r="U52">
+        <v>6069</v>
+      </c>
+      <c r="V52">
+        <v>755.8</v>
+      </c>
+      <c r="W52">
+        <v>-61.8</v>
+      </c>
+      <c r="X52">
+        <v>-157.9</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>102.6</v>
+      </c>
+      <c r="AA52">
+        <v>552.29999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>509</v>
+      </c>
+      <c r="D53">
+        <v>1984.8</v>
+      </c>
+      <c r="E53">
+        <v>1268.5999999999999</v>
+      </c>
+      <c r="F53">
+        <v>918.4</v>
+      </c>
+      <c r="G53">
+        <v>10932.7</v>
+      </c>
+      <c r="H53">
+        <v>15390.3</v>
+      </c>
+      <c r="I53">
+        <v>273.7</v>
+      </c>
+      <c r="J53">
+        <v>1197.7</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1275.5</v>
+      </c>
+      <c r="O53">
+        <v>4583</v>
+      </c>
+      <c r="P53">
+        <v>1197.7</v>
+      </c>
+      <c r="Q53">
+        <v>91</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>9002</v>
+      </c>
+      <c r="T53">
+        <v>10807.3</v>
+      </c>
+      <c r="U53">
+        <v>6186</v>
+      </c>
+      <c r="V53">
+        <v>508.1</v>
+      </c>
+      <c r="W53">
+        <v>-61.6</v>
+      </c>
+      <c r="X53">
+        <v>-510.3</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>72.8</v>
+      </c>
+      <c r="AA53">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>603.79999999999995</v>
+      </c>
+      <c r="D54">
+        <v>2109.5</v>
+      </c>
+      <c r="E54">
+        <v>1059.2</v>
+      </c>
+      <c r="F54">
+        <v>983.8</v>
+      </c>
+      <c r="G54">
+        <v>11461.5</v>
+      </c>
+      <c r="H54">
+        <v>15909.3</v>
+      </c>
+      <c r="I54">
+        <v>260.8</v>
+      </c>
+      <c r="J54">
+        <v>1197.8</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-236.8</v>
+      </c>
+      <c r="N54">
+        <v>1233.5</v>
+      </c>
+      <c r="O54">
+        <v>4671.1000000000004</v>
+      </c>
+      <c r="P54">
+        <v>1197.8</v>
+      </c>
+      <c r="Q54">
+        <v>376.6</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9100</v>
+      </c>
+      <c r="T54">
+        <v>11238.2</v>
+      </c>
+      <c r="U54">
+        <v>6552.2</v>
+      </c>
+      <c r="V54">
+        <v>324.7</v>
+      </c>
+      <c r="W54">
+        <v>-64.099999999999994</v>
+      </c>
+      <c r="X54">
+        <v>-72.5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>133.9</v>
+      </c>
+      <c r="AA54">
+        <v>603.79999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>561</v>
+      </c>
+      <c r="D55">
+        <v>2095.9</v>
+      </c>
+      <c r="E55">
+        <v>991.4</v>
+      </c>
+      <c r="F55">
+        <v>957.3</v>
+      </c>
+      <c r="G55">
+        <v>11612.8</v>
+      </c>
+      <c r="H55">
+        <v>16137.4</v>
+      </c>
+      <c r="I55">
+        <v>261.5</v>
+      </c>
+      <c r="J55">
+        <v>1197.9000000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1112.0999999999999</v>
+      </c>
+      <c r="O55">
+        <v>4491</v>
+      </c>
+      <c r="P55">
+        <v>1197.9000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>211.2</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>9000</v>
+      </c>
+      <c r="T55">
+        <v>11646.4</v>
+      </c>
+      <c r="U55">
+        <v>6814.7</v>
+      </c>
+      <c r="V55">
+        <v>314.7</v>
+      </c>
+      <c r="W55">
+        <v>-75.8</v>
+      </c>
+      <c r="X55">
+        <v>9.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0.3</v>
+      </c>
+      <c r="AA55">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>578.9</v>
+      </c>
+      <c r="D56">
+        <v>2130.5</v>
+      </c>
+      <c r="E56">
+        <v>1002.8</v>
+      </c>
+      <c r="F56">
+        <v>960.5</v>
+      </c>
+      <c r="G56">
+        <v>12164.5</v>
+      </c>
+      <c r="H56">
+        <v>16691.900000000001</v>
+      </c>
+      <c r="I56">
+        <v>302.60000000000002</v>
+      </c>
+      <c r="J56">
+        <v>948.1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1512</v>
+      </c>
+      <c r="O56">
+        <v>4587.3</v>
+      </c>
+      <c r="P56">
+        <v>1198.0999999999999</v>
+      </c>
+      <c r="Q56">
+        <v>786.7</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>9300</v>
+      </c>
+      <c r="T56">
+        <v>12104.6</v>
+      </c>
+      <c r="U56">
+        <v>7604.2</v>
+      </c>
+      <c r="V56">
+        <v>771.5</v>
+      </c>
+      <c r="W56">
+        <v>-75.400000000000006</v>
+      </c>
+      <c r="X56">
+        <v>-268.89999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>112.8</v>
+      </c>
+      <c r="AA56">
+        <v>578.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>640.6</v>
+      </c>
+      <c r="D57">
+        <v>2155.5</v>
+      </c>
+      <c r="E57">
+        <v>950</v>
+      </c>
+      <c r="F57">
+        <v>1033.7</v>
+      </c>
+      <c r="G57">
+        <v>11985.6</v>
+      </c>
+      <c r="H57">
+        <v>16357.1</v>
+      </c>
+      <c r="I57">
+        <v>237.5</v>
+      </c>
+      <c r="J57">
+        <v>948.2</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1469.8</v>
+      </c>
+      <c r="O57">
+        <v>3909.9</v>
+      </c>
+      <c r="P57">
+        <v>1198.2</v>
+      </c>
+      <c r="Q57">
+        <v>-101.6</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>9266</v>
+      </c>
+      <c r="T57">
+        <v>12447.2</v>
+      </c>
+      <c r="U57">
+        <v>7476.8</v>
+      </c>
+      <c r="V57">
+        <v>727.1</v>
+      </c>
+      <c r="W57">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="X57">
+        <v>-863</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>120</v>
+      </c>
+      <c r="AA57">
+        <v>640.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>566.4</v>
+      </c>
+      <c r="D58">
+        <v>2064.3000000000002</v>
+      </c>
+      <c r="E58">
+        <v>926.7</v>
+      </c>
+      <c r="F58">
+        <v>957.3</v>
+      </c>
+      <c r="G58">
+        <v>11833.2</v>
+      </c>
+      <c r="H58">
+        <v>16296.8</v>
+      </c>
+      <c r="I58">
+        <v>194.2</v>
+      </c>
+      <c r="J58">
+        <v>948.3</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-278.60000000000002</v>
+      </c>
+      <c r="N58">
+        <v>1735.8</v>
+      </c>
+      <c r="O58">
+        <v>4068.3</v>
+      </c>
+      <c r="P58">
+        <v>1198.3</v>
+      </c>
+      <c r="Q58">
+        <v>289.2</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>9400</v>
+      </c>
+      <c r="T58">
+        <v>12228.5</v>
+      </c>
+      <c r="U58">
+        <v>7758</v>
+      </c>
+      <c r="V58">
+        <v>572.4</v>
+      </c>
+      <c r="W58">
+        <v>-75.8</v>
+      </c>
+      <c r="X58">
+        <v>-327.9</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>106.7</v>
+      </c>
+      <c r="AA58">
+        <v>566.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>606.5</v>
+      </c>
+      <c r="D59">
+        <v>2009.8</v>
+      </c>
+      <c r="E59">
+        <v>919.1</v>
+      </c>
+      <c r="F59">
+        <v>921.8</v>
+      </c>
+      <c r="G59">
+        <v>12074.6</v>
+      </c>
+      <c r="H59">
+        <v>16491.099999999999</v>
+      </c>
+      <c r="I59">
+        <v>220</v>
+      </c>
+      <c r="J59">
+        <v>1347.7</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1338.8</v>
+      </c>
+      <c r="O59">
+        <v>4007.2</v>
+      </c>
+      <c r="P59">
+        <v>1597.7</v>
+      </c>
+      <c r="Q59">
+        <v>237.1</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>9400</v>
+      </c>
+      <c r="T59">
+        <v>12483.9</v>
+      </c>
+      <c r="U59">
+        <v>8030.2</v>
+      </c>
+      <c r="V59">
+        <v>549</v>
+      </c>
+      <c r="W59">
+        <v>-104.575</v>
+      </c>
+      <c r="X59">
+        <v>-217.1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>31.9</v>
+      </c>
+      <c r="AA59">
+        <v>606.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>504.2</v>
+      </c>
+      <c r="D60">
+        <v>2000.8</v>
+      </c>
+      <c r="E60">
+        <v>899</v>
+      </c>
+      <c r="F60">
+        <v>943.3</v>
+      </c>
+      <c r="G60">
+        <v>12331.5</v>
+      </c>
+      <c r="H60">
+        <v>16670.3</v>
+      </c>
+      <c r="I60">
+        <v>225.7</v>
+      </c>
+      <c r="J60">
+        <v>1347.9</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1182</v>
+      </c>
+      <c r="O60">
+        <v>3884.7</v>
+      </c>
+      <c r="P60">
+        <v>1347.9</v>
+      </c>
+      <c r="Q60">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>9600</v>
+      </c>
+      <c r="T60">
+        <v>12785.6</v>
+      </c>
+      <c r="U60">
+        <v>8262.6</v>
+      </c>
+      <c r="V60">
+        <v>693.5</v>
+      </c>
+      <c r="W60">
+        <v>-91.52</v>
+      </c>
+      <c r="X60">
+        <v>-552.20000000000005</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>119.7</v>
+      </c>
+      <c r="AA60">
+        <v>504.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>358.2</v>
+      </c>
+      <c r="D61">
+        <v>1873.8</v>
+      </c>
+      <c r="E61">
+        <v>838</v>
+      </c>
+      <c r="F61">
+        <v>910.7</v>
+      </c>
+      <c r="G61">
+        <v>12107.2</v>
+      </c>
+      <c r="H61">
+        <v>16335.7</v>
+      </c>
+      <c r="I61">
+        <v>232.1</v>
+      </c>
+      <c r="J61">
+        <v>1348</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1117.8</v>
+      </c>
+      <c r="O61">
+        <v>3780.3</v>
+      </c>
+      <c r="P61">
+        <v>1348</v>
+      </c>
+      <c r="Q61">
+        <v>-58.3</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>9489</v>
+      </c>
+      <c r="T61">
+        <v>12555.4</v>
+      </c>
+      <c r="U61">
+        <v>8184.9</v>
+      </c>
+      <c r="V61">
+        <v>437.1</v>
+      </c>
+      <c r="W61">
+        <v>-91.595910000000003</v>
+      </c>
+      <c r="X61">
+        <v>-515</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>55</v>
+      </c>
+      <c r="AA61">
+        <v>358.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>447.8</v>
+      </c>
+      <c r="D62">
+        <v>1758</v>
+      </c>
+      <c r="E62">
+        <v>863.7</v>
+      </c>
+      <c r="F62">
+        <v>836.3</v>
+      </c>
+      <c r="G62">
+        <v>11987.3</v>
+      </c>
+      <c r="H62">
+        <v>16155.5</v>
+      </c>
+      <c r="I62">
+        <v>229.2</v>
+      </c>
+      <c r="J62">
+        <v>1348.1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-27.9</v>
+      </c>
+      <c r="N62">
+        <v>1098.3</v>
+      </c>
+      <c r="O62">
+        <v>3681.4</v>
+      </c>
+      <c r="P62">
+        <v>1348.1</v>
+      </c>
+      <c r="Q62">
+        <v>-99.1</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>9400</v>
+      </c>
+      <c r="T62">
+        <v>12474.1</v>
+      </c>
+      <c r="U62">
+        <v>8125</v>
+      </c>
+      <c r="V62">
+        <v>295.2</v>
+      </c>
+      <c r="W62">
+        <v>-91.5</v>
+      </c>
+      <c r="X62">
+        <v>-463.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>120.5</v>
+      </c>
+      <c r="AA62">
+        <v>447.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>360.4</v>
+      </c>
+      <c r="D63">
+        <v>1613.9</v>
+      </c>
+      <c r="E63">
+        <v>798</v>
+      </c>
+      <c r="F63">
+        <v>707.9</v>
+      </c>
+      <c r="G63">
+        <v>11821.5</v>
+      </c>
+      <c r="H63">
+        <v>15890.9</v>
+      </c>
+      <c r="I63">
+        <v>173.8</v>
+      </c>
+      <c r="J63">
+        <v>1348.3</v>
+      </c>
+      <c r="K63">
+        <v>94.3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1002.7</v>
+      </c>
+      <c r="O63">
+        <v>3450.4</v>
+      </c>
+      <c r="P63">
+        <v>1442.6</v>
+      </c>
+      <c r="Q63">
+        <v>-228</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>9200</v>
+      </c>
+      <c r="T63">
+        <v>12440.5</v>
+      </c>
+      <c r="U63">
+        <v>7931.8</v>
+      </c>
+      <c r="V63">
+        <v>134.5</v>
+      </c>
+      <c r="W63">
+        <v>-107.4</v>
+      </c>
+      <c r="X63">
+        <v>-403.1</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>24.7</v>
+      </c>
+      <c r="AA63">
+        <v>360.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>446.4</v>
+      </c>
+      <c r="D64">
+        <v>1634.3</v>
+      </c>
+      <c r="E64">
+        <v>812.6</v>
+      </c>
+      <c r="F64">
+        <v>754</v>
+      </c>
+      <c r="G64">
+        <v>11866</v>
+      </c>
+      <c r="H64">
+        <v>15997.5</v>
+      </c>
+      <c r="I64">
+        <v>193</v>
+      </c>
+      <c r="J64">
+        <v>1348.4</v>
+      </c>
+      <c r="K64">
+        <v>92.6</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1076.5999999999999</v>
+      </c>
+      <c r="O64">
+        <v>3586.6</v>
+      </c>
+      <c r="P64">
+        <v>1441</v>
+      </c>
+      <c r="Q64">
+        <v>201.1</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>9100</v>
+      </c>
+      <c r="T64">
+        <v>12410.9</v>
+      </c>
+      <c r="U64">
+        <v>8115.8</v>
+      </c>
+      <c r="V64">
+        <v>735.7</v>
+      </c>
+      <c r="W64">
+        <v>-105.7</v>
+      </c>
+      <c r="X64">
+        <v>-509.2</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="AA64">
+        <v>446.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>472.1</v>
+      </c>
+      <c r="D65">
+        <v>1611.8</v>
+      </c>
+      <c r="E65">
+        <v>746.4</v>
+      </c>
+      <c r="F65">
+        <v>758.4</v>
+      </c>
+      <c r="G65">
+        <v>11912.9</v>
+      </c>
+      <c r="H65">
+        <v>16098.8</v>
+      </c>
+      <c r="I65">
+        <v>233.3</v>
+      </c>
+      <c r="J65">
+        <v>1048.8</v>
+      </c>
+      <c r="K65">
+        <v>52.7</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1349.7</v>
+      </c>
+      <c r="O65">
+        <v>3509.5</v>
+      </c>
+      <c r="P65">
+        <v>1401.2</v>
+      </c>
+      <c r="Q65">
+        <v>241.2</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>9059</v>
+      </c>
+      <c r="T65">
+        <v>12589.3</v>
+      </c>
+      <c r="U65">
+        <v>8247.1</v>
+      </c>
+      <c r="V65">
+        <v>562.29999999999995</v>
+      </c>
+      <c r="W65">
+        <v>-104.1</v>
+      </c>
+      <c r="X65">
+        <v>-425</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>136.1</v>
+      </c>
+      <c r="AA65">
+        <v>472.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>440.2</v>
+      </c>
+      <c r="D66">
+        <v>1560.8</v>
+      </c>
+      <c r="E66">
+        <v>930</v>
+      </c>
+      <c r="F66">
+        <v>729.3</v>
+      </c>
+      <c r="G66">
+        <v>12243.9</v>
+      </c>
+      <c r="H66">
+        <v>16210.3</v>
+      </c>
+      <c r="I66">
+        <v>214.8</v>
+      </c>
+      <c r="J66">
+        <v>1342.8</v>
+      </c>
+      <c r="K66">
+        <v>51.6</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-3.2</v>
+      </c>
+      <c r="N66">
+        <v>1077.7</v>
+      </c>
+      <c r="O66">
+        <v>3122.1</v>
+      </c>
+      <c r="P66">
+        <v>1394.4</v>
+      </c>
+      <c r="Q66">
+        <v>-28.5</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>9100</v>
+      </c>
+      <c r="T66">
+        <v>13088.2</v>
+      </c>
+      <c r="U66">
+        <v>8223.6</v>
+      </c>
+      <c r="V66">
+        <v>446.2</v>
+      </c>
+      <c r="W66">
+        <v>-103.4</v>
+      </c>
+      <c r="X66">
+        <v>-365.9</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AA66">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>420.7</v>
+      </c>
+      <c r="D67">
+        <v>1600.6</v>
+      </c>
+      <c r="E67">
+        <v>1023.5</v>
+      </c>
+      <c r="F67">
+        <v>722.4</v>
+      </c>
+      <c r="G67">
+        <v>13280.9</v>
+      </c>
+      <c r="H67">
+        <v>17210.099999999999</v>
+      </c>
+      <c r="I67">
+        <v>259.3</v>
+      </c>
+      <c r="J67">
+        <v>1343.3</v>
+      </c>
+      <c r="K67">
+        <v>30.8</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>995.4</v>
+      </c>
+      <c r="O67">
+        <v>3077.1</v>
+      </c>
+      <c r="P67">
+        <v>1374.1</v>
+      </c>
+      <c r="Q67">
+        <v>321.3</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>9200</v>
+      </c>
+      <c r="T67">
+        <v>14133</v>
+      </c>
+      <c r="U67">
+        <v>8287.6</v>
+      </c>
+      <c r="V67">
+        <v>168.1</v>
+      </c>
+      <c r="W67">
+        <v>-113.3</v>
+      </c>
+      <c r="X67">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>420.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>410.6</v>
+      </c>
+      <c r="D68">
+        <v>1613.9</v>
+      </c>
+      <c r="E68">
+        <v>978.6</v>
+      </c>
+      <c r="F68">
+        <v>730</v>
+      </c>
+      <c r="G68">
+        <v>13515.6</v>
+      </c>
+      <c r="H68">
+        <v>17476.2</v>
+      </c>
+      <c r="I68">
+        <v>275</v>
+      </c>
+      <c r="J68">
+        <v>1343.8</v>
+      </c>
+      <c r="K68">
+        <v>30.9</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1092.4000000000001</v>
+      </c>
+      <c r="O68">
+        <v>2940.5</v>
+      </c>
+      <c r="P68">
+        <v>1374.7</v>
+      </c>
+      <c r="Q68">
+        <v>10.1</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>9400</v>
+      </c>
+      <c r="T68">
+        <v>14535.7</v>
+      </c>
+      <c r="U68">
+        <v>8564.7999999999993</v>
+      </c>
+      <c r="V68">
+        <v>344</v>
+      </c>
+      <c r="W68">
+        <v>-112.7</v>
+      </c>
+      <c r="X68">
+        <v>-369</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>11.7</v>
+      </c>
+      <c r="AA68">
+        <v>410.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>425.2</v>
+      </c>
+      <c r="D69">
+        <v>1616.9</v>
+      </c>
+      <c r="E69">
+        <v>767.8</v>
+      </c>
+      <c r="F69">
+        <v>745.9</v>
+      </c>
+      <c r="G69">
+        <v>13533.5</v>
+      </c>
+      <c r="H69">
+        <v>17534</v>
+      </c>
+      <c r="I69">
+        <v>167.4</v>
+      </c>
+      <c r="J69">
+        <v>1044.2</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1189.4000000000001</v>
+      </c>
+      <c r="O69">
+        <v>2656.3</v>
+      </c>
+      <c r="P69">
+        <v>1044.2</v>
+      </c>
+      <c r="Q69">
+        <v>-36.5</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>9386</v>
+      </c>
+      <c r="T69">
+        <v>14877.7</v>
+      </c>
+      <c r="U69">
+        <v>8523.2999999999993</v>
+      </c>
+      <c r="V69">
+        <v>177.1</v>
+      </c>
+      <c r="W69">
+        <v>-111.8</v>
+      </c>
+      <c r="X69">
+        <v>-225.2</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="AA69">
+        <v>425.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-583.29999999999995</v>
+      </c>
+      <c r="D70">
+        <v>1615.5</v>
+      </c>
+      <c r="E70">
+        <v>769.7</v>
+      </c>
+      <c r="F70">
+        <v>754.3</v>
+      </c>
+      <c r="G70">
+        <v>14017.7</v>
+      </c>
+      <c r="H70">
+        <v>18074.400000000001</v>
+      </c>
+      <c r="I70">
+        <v>165.3</v>
+      </c>
+      <c r="J70">
+        <v>1044.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-2.4</v>
+      </c>
+      <c r="N70">
+        <v>2354.1999999999998</v>
+      </c>
+      <c r="O70">
+        <v>3785.8</v>
+      </c>
+      <c r="P70">
+        <v>1044.5</v>
+      </c>
+      <c r="Q70">
+        <v>220.7</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>9500</v>
+      </c>
+      <c r="T70">
+        <v>14288.6</v>
+      </c>
+      <c r="U70">
+        <v>8707.5</v>
+      </c>
+      <c r="V70">
+        <v>320.39999999999998</v>
+      </c>
+      <c r="W70">
+        <v>-111.7</v>
+      </c>
+      <c r="X70">
+        <v>-51.1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>5.7</v>
+      </c>
+      <c r="AA70">
+        <v>-583.29999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>443.2</v>
+      </c>
+      <c r="D71">
+        <v>1617.8</v>
+      </c>
+      <c r="E71">
+        <v>765.4</v>
+      </c>
+      <c r="F71">
+        <v>740.8</v>
+      </c>
+      <c r="G71">
+        <v>13504.4</v>
+      </c>
+      <c r="H71">
+        <v>17690</v>
+      </c>
+      <c r="I71">
+        <v>194.6</v>
+      </c>
+      <c r="J71">
+        <v>1044.8</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>3806.9</v>
+      </c>
+      <c r="O71">
+        <v>5203.3999999999996</v>
+      </c>
+      <c r="P71">
+        <v>1044.8</v>
+      </c>
+      <c r="Q71">
+        <v>-243.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>12486.6</v>
+      </c>
+      <c r="U71">
+        <v>8545.4</v>
+      </c>
+      <c r="V71">
+        <v>576.6</v>
+      </c>
+      <c r="W71">
+        <v>-127.3</v>
+      </c>
+      <c r="X71">
+        <v>-713.4</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-85.5</v>
+      </c>
+      <c r="AA71">
+        <v>443.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>402</v>
+      </c>
+      <c r="D72">
+        <v>1558.6</v>
+      </c>
+      <c r="E72">
+        <v>814.9</v>
+      </c>
+      <c r="F72">
+        <v>701.3</v>
+      </c>
+      <c r="G72">
+        <v>11405.5</v>
+      </c>
+      <c r="H72">
+        <v>15528</v>
+      </c>
+      <c r="I72">
+        <v>177.5</v>
+      </c>
+      <c r="J72">
+        <v>695.7</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2257.3000000000002</v>
+      </c>
+      <c r="O72">
+        <v>3306</v>
+      </c>
+      <c r="P72">
+        <v>695.7</v>
+      </c>
+      <c r="Q72">
+        <v>-2072.3000000000002</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>9800</v>
+      </c>
+      <c r="T72">
+        <v>12222</v>
+      </c>
+      <c r="U72">
+        <v>6422.6</v>
+      </c>
+      <c r="V72">
+        <v>611.5</v>
+      </c>
+      <c r="W72">
+        <v>-1755.9</v>
+      </c>
+      <c r="X72">
+        <v>-2552.1999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-16.5</v>
+      </c>
+      <c r="AA72">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>502.5</v>
+      </c>
+      <c r="D73">
+        <v>1527.2</v>
+      </c>
+      <c r="E73">
+        <v>733.7</v>
+      </c>
+      <c r="F73">
+        <v>692.4</v>
+      </c>
+      <c r="G73">
+        <v>10213.6</v>
+      </c>
+      <c r="H73">
+        <v>14383.5</v>
+      </c>
+      <c r="I73">
+        <v>158.9</v>
+      </c>
+      <c r="J73">
+        <v>695.9</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2092.9</v>
+      </c>
+      <c r="O73">
+        <v>3132</v>
+      </c>
+      <c r="P73">
+        <v>695.9</v>
+      </c>
+      <c r="Q73">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>9691</v>
+      </c>
+      <c r="T73">
+        <v>11251.5</v>
+      </c>
+      <c r="U73">
+        <v>6610.8</v>
+      </c>
+      <c r="V73">
+        <v>721.2</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-445</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>23.8</v>
+      </c>
+      <c r="AA73">
+        <v>502.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="D74">
+        <v>1411.5</v>
+      </c>
+      <c r="E74">
+        <v>723.9</v>
+      </c>
+      <c r="F74">
+        <v>612</v>
+      </c>
+      <c r="G74">
+        <v>9584.5</v>
+      </c>
+      <c r="H74">
+        <v>13950.6</v>
+      </c>
+      <c r="I74">
+        <v>180.5</v>
+      </c>
+      <c r="J74">
+        <v>697.7</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1931.5</v>
+      </c>
+      <c r="O74">
+        <v>2941.6</v>
+      </c>
+      <c r="P74">
+        <v>697.7</v>
+      </c>
+      <c r="Q74">
+        <v>-251.7</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>9700</v>
+      </c>
+      <c r="T74">
+        <v>11009</v>
+      </c>
+      <c r="U74">
+        <v>6430.7</v>
+      </c>
+      <c r="V74">
+        <v>254.8</v>
+      </c>
+      <c r="W74">
+        <v>-122.3</v>
+      </c>
+      <c r="X74">
+        <v>-396.1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-42.5</v>
+      </c>
+      <c r="AA74">
+        <v>275.89999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>367.5</v>
+      </c>
+      <c r="D75">
+        <v>1433.8</v>
+      </c>
+      <c r="E75">
+        <v>747.5</v>
+      </c>
+      <c r="F75">
+        <v>603.5</v>
+      </c>
+      <c r="G75">
+        <v>8983.7000000000007</v>
+      </c>
+      <c r="H75">
+        <v>14239</v>
+      </c>
+      <c r="I75">
+        <v>210.1</v>
+      </c>
+      <c r="J75">
+        <v>697.9</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1951.9</v>
+      </c>
+      <c r="O75">
+        <v>2920.6</v>
+      </c>
+      <c r="P75">
+        <v>697.9</v>
+      </c>
+      <c r="Q75">
+        <v>-712.9</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>9900</v>
+      </c>
+      <c r="T75">
+        <v>11318.4</v>
+      </c>
+      <c r="U75">
+        <v>5680.6</v>
+      </c>
+      <c r="V75">
+        <v>189.4</v>
+      </c>
+      <c r="W75">
+        <v>-133.1</v>
+      </c>
+      <c r="X75">
+        <v>-266.7</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AA75">
+        <v>367.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>245.9</v>
+      </c>
+      <c r="D76">
+        <v>1476.7</v>
+      </c>
+      <c r="E76">
+        <v>757.8</v>
+      </c>
+      <c r="F76">
+        <v>636.9</v>
+      </c>
+      <c r="G76">
+        <v>9031.7000000000007</v>
+      </c>
+      <c r="H76">
+        <v>14463.3</v>
+      </c>
+      <c r="I76">
+        <v>207.8</v>
+      </c>
+      <c r="J76">
+        <v>697</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2004</v>
+      </c>
+      <c r="O76">
+        <v>3091</v>
+      </c>
+      <c r="P76">
+        <v>697</v>
+      </c>
+      <c r="Q76">
+        <v>-188.4</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>9800</v>
+      </c>
+      <c r="T76">
+        <v>11372.3</v>
+      </c>
+      <c r="U76">
+        <v>5508.8</v>
+      </c>
+      <c r="V76">
+        <v>-274.89999999999998</v>
+      </c>
+      <c r="W76">
+        <v>-132.1</v>
+      </c>
+      <c r="X76">
+        <v>360.8</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-96</v>
+      </c>
+      <c r="AA76">
+        <v>245.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="D77">
+        <v>1347.4</v>
+      </c>
+      <c r="E77">
+        <v>740</v>
+      </c>
+      <c r="F77">
+        <v>527.29999999999995</v>
+      </c>
+      <c r="G77">
+        <v>9100.5</v>
+      </c>
+      <c r="H77">
+        <v>14532.2</v>
+      </c>
+      <c r="I77">
+        <v>222.9</v>
+      </c>
+      <c r="J77">
+        <v>696.9</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2022.9</v>
+      </c>
+      <c r="O77">
+        <v>3161.3</v>
+      </c>
+      <c r="P77">
+        <v>696.9</v>
+      </c>
+      <c r="Q77">
+        <v>200</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>9600</v>
+      </c>
+      <c r="T77">
+        <v>11370.9</v>
+      </c>
+      <c r="U77">
+        <v>5803.4</v>
+      </c>
+      <c r="V77">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="W77">
+        <v>-131.1</v>
+      </c>
+      <c r="X77">
+        <v>261.5</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>306.39999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>350.5</v>
+      </c>
+      <c r="D78">
+        <v>1389.2</v>
+      </c>
+      <c r="E78">
+        <v>710.9</v>
+      </c>
+      <c r="F78">
+        <v>577.20000000000005</v>
+      </c>
+      <c r="G78">
+        <v>8852.5</v>
+      </c>
+      <c r="H78">
+        <v>15001.8</v>
+      </c>
+      <c r="I78">
+        <v>194</v>
+      </c>
+      <c r="J78">
+        <v>697</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-0.2</v>
+      </c>
+      <c r="N78">
+        <v>1953.6</v>
+      </c>
+      <c r="O78">
+        <v>3377</v>
+      </c>
+      <c r="P78">
+        <v>1014.9</v>
+      </c>
+      <c r="Q78">
+        <v>18.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>9600</v>
+      </c>
+      <c r="T78">
+        <v>11624.8</v>
+      </c>
+      <c r="U78">
+        <v>5817.3</v>
+      </c>
+      <c r="V78">
+        <v>31.7</v>
+      </c>
+      <c r="W78">
+        <v>-130.6</v>
+      </c>
+      <c r="X78">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="Y78">
+        <v>278.8</v>
+      </c>
+      <c r="Z78">
+        <v>-0.3</v>
+      </c>
+      <c r="AA78">
+        <v>350.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D79">
+        <v>1338.3</v>
+      </c>
+      <c r="E79">
+        <v>630.79999999999995</v>
+      </c>
+      <c r="F79">
+        <v>575.9</v>
+      </c>
+      <c r="G79">
+        <v>8686.9</v>
+      </c>
+      <c r="H79">
+        <v>14666.2</v>
+      </c>
+      <c r="I79">
+        <v>213.3</v>
+      </c>
+      <c r="J79">
+        <v>697.2</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1768.2</v>
+      </c>
+      <c r="O79">
+        <v>3703.6</v>
+      </c>
+      <c r="P79">
+        <v>1006.1</v>
+      </c>
+      <c r="Q79">
+        <v>59.5</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>9600</v>
+      </c>
+      <c r="T79">
+        <v>10962.6</v>
+      </c>
+      <c r="U79">
+        <v>5801.4</v>
+      </c>
+      <c r="V79">
+        <v>109.3</v>
+      </c>
+      <c r="W79">
+        <v>-134.6</v>
+      </c>
+      <c r="X79">
+        <v>-54.8</v>
+      </c>
+      <c r="Y79">
+        <v>284.10000000000002</v>
+      </c>
+      <c r="Z79">
+        <v>-113.6</v>
+      </c>
+      <c r="AA79">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="D80">
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="E80">
+        <v>810.3</v>
+      </c>
+      <c r="F80">
+        <v>384.5</v>
+      </c>
+      <c r="G80">
+        <v>10178</v>
+      </c>
+      <c r="H80">
+        <v>15617</v>
+      </c>
+      <c r="I80">
+        <v>187.3</v>
+      </c>
+      <c r="J80">
+        <v>697.2</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1883.8</v>
+      </c>
+      <c r="O80">
+        <v>3899.5</v>
+      </c>
+      <c r="P80">
+        <v>997.8</v>
+      </c>
+      <c r="Q80">
+        <v>940.1</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>9500</v>
+      </c>
+      <c r="T80">
+        <v>11717.5</v>
+      </c>
+      <c r="U80">
+        <v>6358.7</v>
+      </c>
+      <c r="V80">
+        <v>505.6</v>
+      </c>
+      <c r="W80">
+        <v>-133.9</v>
+      </c>
+      <c r="X80">
+        <v>160.5</v>
+      </c>
+      <c r="Y80">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="Z80">
+        <v>6.3</v>
+      </c>
+      <c r="AA80">
+        <v>290.39999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1627.4</v>
+      </c>
+      <c r="E81">
+        <v>1114.8</v>
+      </c>
+      <c r="F81">
+        <v>679</v>
+      </c>
+      <c r="G81">
+        <v>7867.3</v>
+      </c>
+      <c r="H81">
+        <v>20220.900000000001</v>
+      </c>
+      <c r="I81">
+        <v>283.7</v>
+      </c>
+      <c r="J81">
+        <v>3017.1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>3183.5</v>
+      </c>
+      <c r="O81">
+        <v>8705.2000000000007</v>
+      </c>
+      <c r="P81">
+        <v>3638.1</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>11800</v>
+      </c>
+      <c r="T81">
+        <v>11515.7</v>
+      </c>
+      <c r="U81">
+        <v>3026.8</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>486.2</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>345.3</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1995.1</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1230.0999999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>830</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>8878.5</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>21229.599999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>442.4</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>3753.1</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2691.1</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>9193.4</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>4362.3</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>462</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>11400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>12036.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3975.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>290</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-134.80000000000001</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>666.1</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>609.20000000000005</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-548.70000000000005</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>345.3</v>
       </c>
     </row>
